--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -264,6 +264,54 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,  Shaili%Gupta%NULL%2,  Shaili%Gupta%NULL%0,  Gary%Stack%NULL%1,  Sheldon M.%Campbell%NULL%1,  David R.%Peaper%NULL%2,  David R.%Peaper%NULL%0,  Louise M.%Dembry%NULL%1,  Ann%Fisher%NULL%1,  Asim F.%Tarabar%NULL%1,  Michael%Kozal%NULL%1,  Christopher B.%Ruser%NULL%1,  Selvakumar%Subbian%NULL%8,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0,  Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,   K.% Fonseca%null%1,   A. R.% Schneider%null%1,   J.% Hu%null%1,   N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,  Isabelle%Podglajen%NULL%1,  Maxime%Wack%NULL%1,  Edouard%Flamarion%NULL%1,  Tristan%Mirault%NULL%1,  Guillaume%Goudot%NULL%1,  Caroline%Hauw-Berlemont%NULL%2,  Laetitia%Le%NULL%1,  Eric%Caudron%NULL%1,  Sophie%Carrabin%NULL%1,  Julien%Rodary%NULL%1,  Tatiana%Ribeyre%NULL%1,  Laurent%Bélec%NULL%1,  David%Veyer%NULL%1,  Alexander J.%McAdam%NULL%7,  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,  Rachel%Jennings%NULL%2,  Rachel%Jennings%NULL%0,  Brian%Hart%NULL%1,  Gerard A.%Cangelosi%NULL%2,  Gerard A.%Cangelosi%NULL%0,  Rachel C.%Wood%NULL%1,  Kevin%Wehber%NULL%2,  Kevin%Wehber%NULL%0,  Prateek%Verma%NULL%1,  Deneen%Vojta%NULL%1,  Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,  Rose A.%Lee%NULL%1,  Ghee Rye%Lee%NULL%1,  Kate%Zulauf%NULL%1,  James E.%Kirby%NULL%1,  Ramy%Arnaout%NULL%1,   C.%Callahan%null%1,   R.% Lee%null%1,   G.% Lee%null%1,   K. E.% Zulauf%null%1,   J. E.% Kirby%null%1,   R. % Arnaout%null%1,  C.%Callahan%null%1,  R.% Lee%null%1,  G.% Lee%null%1,  K. E.% Zulauf%null%1,  J. E.% Kirby%null%1,  R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,  Greta%Van Slyke%NULL%1,  Dylan%Ehrbar%NULL%1,  Klemen%Strle%NULL%1,  Tugba%Yildirim%NULL%1,  Dominick A.%Centurioni%NULL%1,  Anne C.%Walsh%NULL%1,  Andrew K.%Chang%NULL%1,  Michael J.%Waxman%NULL%2,  Michael J.%Waxman%NULL%0,  Kirsten%St. George%NULL%1,  Alexander J.%McAdam%NULL%0,  Alexander J.%McAdam%NULL%0,  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,  F%Turner%NULL%1,  V%Slepnev%NULL%1,  A%Bacelar%NULL%1,  L%Deming%NULL%1,  S%Kodeboyina%NULL%1,  J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,  Ashley E.%Kim%NULL%1,  Naomi C.%Wilcox%NULL%1,  Jennifer K.%Logue%NULL%1,  Alex L.%Greninger%NULL%1,  Janet A.%Englund%NULL%3,  Helen Y.%Chu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,  A. P.%Barker%NULL%2,  A. P.%Barker%NULL%0,  D. R.%Hillyard%NULL%1,  N.%Gilmore%NULL%1,  J. W.%Barrett%NULL%1,  R. R.%Orlandi%NULL%1,  S. M.%Shakir%NULL%1,  Alexander J.%McAdam%NULL%0,  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,  Connie%Trieu%NULL%1,  Sunil K%Pati%NULL%1,  Misty%Latting%NULL%1,  Joshua%Cooper%NULL%1,  Maria C%Seleme%NULL%1,  Sushma%Boppana%NULL%1,  Nitin%Arora%NULL%1,  William J%Britt%NULL%1,  Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,  Qianyuan%Li%NULL%1,  Jun%Zhou%NULL%1,  Wen%Ai%NULL%1,  Xiaoling%Zheng%NULL%1,  Jingjing%Zeng%NULL%1,  Yuwen%Liu%NULL%1,  Xiying%Xiang%NULL%1,  Rong%Guo%NULL%1,  Xiaoyin%Li%NULL%1,  Xiandi%Wu%NULL%1,  Haiying%Xu%NULL%1,  Ling%Jiang%NULL%1,  Huaqin%Zhang%NULL%1,  Jing%Chen%NULL%2,  Lili%Tian%NULL%1,  Jun%Luo%NULL%1,  Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
   </si>
 </sst>
 </file>
@@ -583,6 +631,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -598,7 +649,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -608,6 +659,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -624,16 +678,19 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -650,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -660,6 +717,9 @@
       </c>
       <c r="H4" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +736,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -686,6 +746,9 @@
       </c>
       <c r="H5" t="s">
         <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -702,16 +765,19 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +794,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -738,6 +804,9 @@
       </c>
       <c r="H7" t="s">
         <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +823,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -764,6 +833,9 @@
       </c>
       <c r="H8" t="s">
         <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -780,7 +852,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -790,6 +862,9 @@
       </c>
       <c r="H9" t="s">
         <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +881,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -816,6 +891,9 @@
       </c>
       <c r="H10" t="s">
         <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +910,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -842,6 +920,9 @@
       </c>
       <c r="H11" t="s">
         <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +939,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -868,6 +949,9 @@
       </c>
       <c r="H12" t="s">
         <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="135">
   <si>
     <t>Doi</t>
   </si>
@@ -312,6 +312,138 @@
   </si>
   <si>
     <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,   Shaili%Gupta%NULL%2,   Shaili%Gupta%NULL%0,   Gary%Stack%NULL%1,   Sheldon M.%Campbell%NULL%1,   David R.%Peaper%NULL%2,   David R.%Peaper%NULL%0,   Louise M.%Dembry%NULL%1,   Ann%Fisher%NULL%1,   Asim F.%Tarabar%NULL%1,   Michael%Kozal%NULL%1,   Christopher B.%Ruser%NULL%1,   Selvakumar%Subbian%NULL%8,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0,   Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,    K.% Fonseca%null%1,    A. R.% Schneider%null%1,    J.% Hu%null%1,    N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,   Isabelle%Podglajen%NULL%1,   Maxime%Wack%NULL%1,   Edouard%Flamarion%NULL%1,   Tristan%Mirault%NULL%1,   Guillaume%Goudot%NULL%1,   Caroline%Hauw-Berlemont%NULL%2,   Laetitia%Le%NULL%1,   Eric%Caudron%NULL%1,   Sophie%Carrabin%NULL%1,   Julien%Rodary%NULL%1,   Tatiana%Ribeyre%NULL%1,   Laurent%Bélec%NULL%1,   David%Veyer%NULL%1,   Alexander J.%McAdam%NULL%7,   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,   Rachel%Jennings%NULL%2,   Rachel%Jennings%NULL%0,   Brian%Hart%NULL%1,   Gerard A.%Cangelosi%NULL%2,   Gerard A.%Cangelosi%NULL%0,   Rachel C.%Wood%NULL%1,   Kevin%Wehber%NULL%2,   Kevin%Wehber%NULL%0,   Prateek%Verma%NULL%1,   Deneen%Vojta%NULL%1,   Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,   Rose A.%Lee%NULL%1,   Ghee Rye%Lee%NULL%1,   Kate%Zulauf%NULL%1,   James E.%Kirby%NULL%1,   Ramy%Arnaout%NULL%1,    C.%Callahan%null%1,    R.% Lee%null%1,    G.% Lee%null%1,    K. E.% Zulauf%null%1,    J. E.% Kirby%null%1,    R. % Arnaout%null%1,   C.%Callahan%null%1,   R.% Lee%null%1,   G.% Lee%null%1,   K. E.% Zulauf%null%1,   J. E.% Kirby%null%1,   R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,   Greta%Van Slyke%NULL%1,   Dylan%Ehrbar%NULL%1,   Klemen%Strle%NULL%1,   Tugba%Yildirim%NULL%1,   Dominick A.%Centurioni%NULL%1,   Anne C.%Walsh%NULL%1,   Andrew K.%Chang%NULL%1,   Michael J.%Waxman%NULL%2,   Michael J.%Waxman%NULL%0,   Kirsten%St. George%NULL%1,   Alexander J.%McAdam%NULL%0,   Alexander J.%McAdam%NULL%0,   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,   F%Turner%NULL%1,   V%Slepnev%NULL%1,   A%Bacelar%NULL%1,   L%Deming%NULL%1,   S%Kodeboyina%NULL%1,   J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,   Ashley E.%Kim%NULL%1,   Naomi C.%Wilcox%NULL%1,   Jennifer K.%Logue%NULL%1,   Alex L.%Greninger%NULL%1,   Janet A.%Englund%NULL%3,   Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,   A. P.%Barker%NULL%2,   A. P.%Barker%NULL%0,   D. R.%Hillyard%NULL%1,   N.%Gilmore%NULL%1,   J. W.%Barrett%NULL%1,   R. R.%Orlandi%NULL%1,   S. M.%Shakir%NULL%1,   Alexander J.%McAdam%NULL%0,   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,   Connie%Trieu%NULL%1,   Sunil K%Pati%NULL%1,   Misty%Latting%NULL%1,   Joshua%Cooper%NULL%1,   Maria C%Seleme%NULL%1,   Sushma%Boppana%NULL%1,   Nitin%Arora%NULL%1,   William J%Britt%NULL%1,   Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,   Qianyuan%Li%NULL%1,   Jun%Zhou%NULL%1,   Wen%Ai%NULL%1,   Xiaoling%Zheng%NULL%1,   Jingjing%Zeng%NULL%1,   Yuwen%Liu%NULL%1,   Xiying%Xiang%NULL%1,   Rong%Guo%NULL%1,   Xiaoyin%Li%NULL%1,   Xiandi%Wu%NULL%1,   Haiying%Xu%NULL%1,   Ling%Jiang%NULL%1,   Huaqin%Zhang%NULL%1,   Jing%Chen%NULL%2,   Lili%Tian%NULL%1,   Jun%Luo%NULL%1,   Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,    Shaili%Gupta%NULL%2,    Shaili%Gupta%NULL%0,    Gary%Stack%NULL%1,    Sheldon M.%Campbell%NULL%1,    David R.%Peaper%NULL%2,    David R.%Peaper%NULL%0,    Louise M.%Dembry%NULL%1,    Ann%Fisher%NULL%1,    Asim F.%Tarabar%NULL%1,    Michael%Kozal%NULL%1,    Christopher B.%Ruser%NULL%1,    Selvakumar%Subbian%NULL%8,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0,    Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,     K.% Fonseca%null%1,     A. R.% Schneider%null%1,     J.% Hu%null%1,     N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,    Isabelle%Podglajen%NULL%1,    Maxime%Wack%NULL%1,    Edouard%Flamarion%NULL%1,    Tristan%Mirault%NULL%1,    Guillaume%Goudot%NULL%1,    Caroline%Hauw-Berlemont%NULL%2,    Laetitia%Le%NULL%1,    Eric%Caudron%NULL%1,    Sophie%Carrabin%NULL%1,    Julien%Rodary%NULL%1,    Tatiana%Ribeyre%NULL%1,    Laurent%Bélec%NULL%1,    David%Veyer%NULL%1,    Alexander J.%McAdam%NULL%7,    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,    Rachel%Jennings%NULL%2,    Rachel%Jennings%NULL%0,    Brian%Hart%NULL%1,    Gerard A.%Cangelosi%NULL%2,    Gerard A.%Cangelosi%NULL%0,    Rachel C.%Wood%NULL%1,    Kevin%Wehber%NULL%2,    Kevin%Wehber%NULL%0,    Prateek%Verma%NULL%1,    Deneen%Vojta%NULL%1,    Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,    Rose A.%Lee%NULL%1,    Ghee Rye%Lee%NULL%1,    Kate%Zulauf%NULL%1,    James E.%Kirby%NULL%1,    Ramy%Arnaout%NULL%1,     C.%Callahan%null%1,     R.% Lee%null%1,     G.% Lee%null%1,     K. E.% Zulauf%null%1,     J. E.% Kirby%null%1,     R. % Arnaout%null%1,    C.%Callahan%null%1,    R.% Lee%null%1,    G.% Lee%null%1,    K. E.% Zulauf%null%1,    J. E.% Kirby%null%1,    R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,    Greta%Van Slyke%NULL%1,    Dylan%Ehrbar%NULL%1,    Klemen%Strle%NULL%1,    Tugba%Yildirim%NULL%1,    Dominick A.%Centurioni%NULL%1,    Anne C.%Walsh%NULL%1,    Andrew K.%Chang%NULL%1,    Michael J.%Waxman%NULL%2,    Michael J.%Waxman%NULL%0,    Kirsten%St. George%NULL%1,    Alexander J.%McAdam%NULL%0,    Alexander J.%McAdam%NULL%0,    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,    F%Turner%NULL%1,    V%Slepnev%NULL%1,    A%Bacelar%NULL%1,    L%Deming%NULL%1,    S%Kodeboyina%NULL%1,    J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,    Ashley E.%Kim%NULL%1,    Naomi C.%Wilcox%NULL%1,    Jennifer K.%Logue%NULL%1,    Alex L.%Greninger%NULL%1,    Janet A.%Englund%NULL%1,    Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,    A. P.%Barker%NULL%2,    A. P.%Barker%NULL%0,    D. R.%Hillyard%NULL%1,    N.%Gilmore%NULL%1,    J. W.%Barrett%NULL%1,    R. R.%Orlandi%NULL%1,    S. M.%Shakir%NULL%1,    Alexander J.%McAdam%NULL%0,    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,    Connie%Trieu%NULL%1,    Sunil K%Pati%NULL%1,    Misty%Latting%NULL%1,    Joshua%Cooper%NULL%1,    Maria C%Seleme%NULL%1,    Sushma%Boppana%NULL%1,    Nitin%Arora%NULL%1,    William J%Britt%NULL%1,    Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,    Qianyuan%Li%NULL%1,    Jun%Zhou%NULL%1,    Wen%Ai%NULL%1,    Xiaoling%Zheng%NULL%1,    Jingjing%Zeng%NULL%1,    Yuwen%Liu%NULL%1,    Xiying%Xiang%NULL%1,    Rong%Guo%NULL%1,    Xiaoyin%Li%NULL%1,    Xiandi%Wu%NULL%1,    Haiying%Xu%NULL%1,    Ling%Jiang%NULL%1,    Huaqin%Zhang%NULL%1,    Jing%Chen%NULL%3,    Lili%Tian%NULL%1,    Jun%Luo%NULL%1,    Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,     Shaili%Gupta%NULL%2,     Shaili%Gupta%NULL%0,     Gary%Stack%NULL%1,     Sheldon M.%Campbell%NULL%1,     David R.%Peaper%NULL%2,     David R.%Peaper%NULL%0,     Louise M.%Dembry%NULL%1,     Ann%Fisher%NULL%1,     Asim F.%Tarabar%NULL%1,     Michael%Kozal%NULL%1,     Christopher B.%Ruser%NULL%1,     Selvakumar%Subbian%NULL%8,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0,     Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,      K.% Fonseca%null%1,      A. R.% Schneider%null%1,      J.% Hu%null%1,      N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,     Isabelle%Podglajen%NULL%1,     Maxime%Wack%NULL%1,     Edouard%Flamarion%NULL%1,     Tristan%Mirault%NULL%1,     Guillaume%Goudot%NULL%1,     Caroline%Hauw-Berlemont%NULL%2,     Laetitia%Le%NULL%1,     Eric%Caudron%NULL%1,     Sophie%Carrabin%NULL%1,     Julien%Rodary%NULL%1,     Tatiana%Ribeyre%NULL%1,     Laurent%Bélec%NULL%1,     David%Veyer%NULL%1,     Alexander J.%McAdam%NULL%7,     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,     Rachel%Jennings%NULL%2,     Rachel%Jennings%NULL%0,     Brian%Hart%NULL%1,     Gerard A.%Cangelosi%NULL%2,     Gerard A.%Cangelosi%NULL%0,     Rachel C.%Wood%NULL%1,     Kevin%Wehber%NULL%2,     Kevin%Wehber%NULL%0,     Prateek%Verma%NULL%1,     Deneen%Vojta%NULL%1,     Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,     Rose A.%Lee%NULL%1,     Ghee Rye%Lee%NULL%1,     Kate%Zulauf%NULL%1,     James E.%Kirby%NULL%1,     Ramy%Arnaout%NULL%1,      C.%Callahan%null%1,      R.% Lee%null%1,      G.% Lee%null%1,      K. E.% Zulauf%null%1,      J. E.% Kirby%null%1,      R. % Arnaout%null%1,     C.%Callahan%null%1,     R.% Lee%null%1,     G.% Lee%null%1,     K. E.% Zulauf%null%1,     J. E.% Kirby%null%1,     R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,     Greta%Van Slyke%NULL%1,     Dylan%Ehrbar%NULL%1,     Klemen%Strle%NULL%1,     Tugba%Yildirim%NULL%1,     Dominick A.%Centurioni%NULL%1,     Anne C.%Walsh%NULL%1,     Andrew K.%Chang%NULL%1,     Michael J.%Waxman%NULL%2,     Michael J.%Waxman%NULL%0,     Kirsten%St. George%NULL%1,     Alexander J.%McAdam%NULL%0,     Alexander J.%McAdam%NULL%0,     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,     F%Turner%NULL%1,     V%Slepnev%NULL%1,     A%Bacelar%NULL%1,     L%Deming%NULL%1,     S%Kodeboyina%NULL%1,     J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,     Ashley E.%Kim%NULL%1,     Naomi C.%Wilcox%NULL%1,     Jennifer K.%Logue%NULL%1,     Alex L.%Greninger%NULL%1,     Janet A.%Englund%NULL%1,     Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,     A. P.%Barker%NULL%2,     A. P.%Barker%NULL%0,     D. R.%Hillyard%NULL%1,     N.%Gilmore%NULL%1,     J. W.%Barrett%NULL%1,     R. R.%Orlandi%NULL%1,     S. M.%Shakir%NULL%1,     Alexander J.%McAdam%NULL%0,     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,     Connie%Trieu%NULL%1,     Sunil K%Pati%NULL%1,     Misty%Latting%NULL%1,     Joshua%Cooper%NULL%1,     Maria C%Seleme%NULL%1,     Sushma%Boppana%NULL%1,     Nitin%Arora%NULL%1,     William J%Britt%NULL%1,     Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,     Qianyuan%Li%NULL%1,     Jun%Zhou%NULL%1,     Wen%Ai%NULL%1,     Xiaoling%Zheng%NULL%1,     Jingjing%Zeng%NULL%1,     Yuwen%Liu%NULL%1,     Xiying%Xiang%NULL%1,     Rong%Guo%NULL%1,     Xiaoyin%Li%NULL%1,     Xiandi%Wu%NULL%1,     Haiying%Xu%NULL%1,     Ling%Jiang%NULL%1,     Huaqin%Zhang%NULL%1,     Jing%Chen%NULL%3,     Lili%Tian%NULL%1,     Jun%Luo%NULL%1,     Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,      Shaili%Gupta%NULL%2,      Shaili%Gupta%NULL%0,      Gary%Stack%NULL%1,      Sheldon M.%Campbell%NULL%1,      David R.%Peaper%NULL%2,      David R.%Peaper%NULL%0,      Louise M.%Dembry%NULL%1,      Ann%Fisher%NULL%1,      Asim F.%Tarabar%NULL%1,      Michael%Kozal%NULL%1,      Christopher B.%Ruser%NULL%1,      Selvakumar%Subbian%NULL%8,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0,      Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,       K.% Fonseca%null%1,       A. R.% Schneider%null%1,       J.% Hu%null%1,       N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,      Isabelle%Podglajen%NULL%1,      Maxime%Wack%NULL%1,      Edouard%Flamarion%NULL%1,      Tristan%Mirault%NULL%1,      Guillaume%Goudot%NULL%1,      Caroline%Hauw-Berlemont%NULL%2,      Laetitia%Le%NULL%1,      Eric%Caudron%NULL%1,      Sophie%Carrabin%NULL%1,      Julien%Rodary%NULL%1,      Tatiana%Ribeyre%NULL%1,      Laurent%Bélec%NULL%1,      David%Veyer%NULL%1,      Alexander J.%McAdam%NULL%7,      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,      Rachel%Jennings%NULL%2,      Rachel%Jennings%NULL%0,      Brian%Hart%NULL%1,      Gerard A.%Cangelosi%NULL%2,      Gerard A.%Cangelosi%NULL%0,      Rachel C.%Wood%NULL%1,      Kevin%Wehber%NULL%2,      Kevin%Wehber%NULL%0,      Prateek%Verma%NULL%1,      Deneen%Vojta%NULL%1,      Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,      Rose A.%Lee%NULL%1,      Ghee Rye%Lee%NULL%1,      Kate%Zulauf%NULL%1,      James E.%Kirby%NULL%1,      Ramy%Arnaout%NULL%1,       C.%Callahan%null%1,       R.% Lee%null%1,       G.% Lee%null%1,       K. E.% Zulauf%null%1,       J. E.% Kirby%null%1,       R. % Arnaout%null%1,      C.%Callahan%null%1,      R.% Lee%null%1,      G.% Lee%null%1,      K. E.% Zulauf%null%1,      J. E.% Kirby%null%1,      R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,      Greta%Van Slyke%NULL%1,      Dylan%Ehrbar%NULL%1,      Klemen%Strle%NULL%1,      Tugba%Yildirim%NULL%1,      Dominick A.%Centurioni%NULL%1,      Anne C.%Walsh%NULL%1,      Andrew K.%Chang%NULL%1,      Michael J.%Waxman%NULL%2,      Michael J.%Waxman%NULL%0,      Kirsten%St. George%NULL%1,      Alexander J.%McAdam%NULL%0,      Alexander J.%McAdam%NULL%0,      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,      F%Turner%NULL%1,      V%Slepnev%NULL%1,      A%Bacelar%NULL%1,      L%Deming%NULL%1,      S%Kodeboyina%NULL%1,      J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,      Ashley E.%Kim%NULL%1,      Naomi C.%Wilcox%NULL%1,      Jennifer K.%Logue%NULL%1,      Alex L.%Greninger%NULL%1,      Janet A.%Englund%NULL%1,      Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,      A. P.%Barker%NULL%2,      A. P.%Barker%NULL%0,      D. R.%Hillyard%NULL%1,      N.%Gilmore%NULL%1,      J. W.%Barrett%NULL%1,      R. R.%Orlandi%NULL%1,      S. M.%Shakir%NULL%1,      Alexander J.%McAdam%NULL%0,      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,      Connie%Trieu%NULL%1,      Sunil K%Pati%NULL%1,      Misty%Latting%NULL%1,      Joshua%Cooper%NULL%1,      Maria C%Seleme%NULL%1,      Sushma%Boppana%NULL%1,      Nitin%Arora%NULL%1,      William J%Britt%NULL%1,      Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,      Qianyuan%Li%NULL%1,      Jun%Zhou%NULL%1,      Wen%Ai%NULL%1,      Xiaoling%Zheng%NULL%1,      Jingjing%Zeng%NULL%1,      Yuwen%Liu%NULL%1,      Xiying%Xiang%NULL%1,      Rong%Guo%NULL%1,      Xiaoyin%Li%NULL%1,      Xiandi%Wu%NULL%1,      Haiying%Xu%NULL%1,      Ling%Jiang%NULL%1,      Huaqin%Zhang%NULL%1,      Jing%Chen%NULL%3,      Lili%Tian%NULL%1,      Jun%Luo%NULL%1,      Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -649,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -678,7 +810,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -707,7 +839,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -736,7 +868,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -765,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -794,7 +926,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -823,7 +955,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -852,7 +984,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -881,7 +1013,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -910,7 +1042,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -939,7 +1071,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="157">
   <si>
     <t>Doi</t>
   </si>
@@ -444,6 +444,72 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,      Qianyuan%Li%NULL%1,      Jun%Zhou%NULL%1,      Wen%Ai%NULL%1,      Xiaoling%Zheng%NULL%1,      Jingjing%Zeng%NULL%1,      Yuwen%Liu%NULL%1,      Xiying%Xiang%NULL%1,      Rong%Guo%NULL%1,      Xiaoyin%Li%NULL%1,      Xiandi%Wu%NULL%1,      Haiying%Xu%NULL%1,      Ling%Jiang%NULL%1,      Huaqin%Zhang%NULL%1,      Jing%Chen%NULL%3,      Lili%Tian%NULL%1,      Jun%Luo%NULL%1,      Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,       Shaili%Gupta%NULL%2,       Shaili%Gupta%NULL%0,       Gary%Stack%NULL%1,       Sheldon M.%Campbell%NULL%1,       David R.%Peaper%NULL%2,       David R.%Peaper%NULL%0,       Louise M.%Dembry%NULL%1,       Ann%Fisher%NULL%1,       Asim F.%Tarabar%NULL%1,       Michael%Kozal%NULL%1,       Christopher B.%Ruser%NULL%1,       Selvakumar%Subbian%NULL%8,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0,       Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,        K.% Fonseca%null%1,        A. R.% Schneider%null%1,        J.% Hu%null%1,        N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,       Isabelle%Podglajen%NULL%1,       Maxime%Wack%NULL%1,       Edouard%Flamarion%NULL%1,       Tristan%Mirault%NULL%1,       Guillaume%Goudot%NULL%1,       Caroline%Hauw-Berlemont%NULL%2,       Laetitia%Le%NULL%1,       Eric%Caudron%NULL%1,       Sophie%Carrabin%NULL%1,       Julien%Rodary%NULL%1,       Tatiana%Ribeyre%NULL%1,       Laurent%Bélec%NULL%1,       David%Veyer%NULL%1,       Alexander J.%McAdam%NULL%7,       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,       Rachel%Jennings%NULL%2,       Rachel%Jennings%NULL%0,       Brian%Hart%NULL%1,       Gerard A.%Cangelosi%NULL%2,       Gerard A.%Cangelosi%NULL%0,       Rachel C.%Wood%NULL%1,       Kevin%Wehber%NULL%2,       Kevin%Wehber%NULL%0,       Prateek%Verma%NULL%1,       Deneen%Vojta%NULL%1,       Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,       Rose A.%Lee%NULL%1,       Ghee Rye%Lee%NULL%1,       Kate%Zulauf%NULL%1,       James E.%Kirby%NULL%1,       Ramy%Arnaout%NULL%1,        C.%Callahan%null%1,        R.% Lee%null%1,        G.% Lee%null%1,        K. E.% Zulauf%null%1,        J. E.% Kirby%null%1,        R. % Arnaout%null%1,       C.%Callahan%null%1,       R.% Lee%null%1,       G.% Lee%null%1,       K. E.% Zulauf%null%1,       J. E.% Kirby%null%1,       R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,       Greta%Van Slyke%NULL%1,       Dylan%Ehrbar%NULL%1,       Klemen%Strle%NULL%1,       Tugba%Yildirim%NULL%1,       Dominick A.%Centurioni%NULL%1,       Anne C.%Walsh%NULL%1,       Andrew K.%Chang%NULL%1,       Michael J.%Waxman%NULL%2,       Michael J.%Waxman%NULL%0,       Kirsten%St. George%NULL%1,       Alexander J.%McAdam%NULL%0,       Alexander J.%McAdam%NULL%0,       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,       F%Turner%NULL%1,       V%Slepnev%NULL%1,       A%Bacelar%NULL%1,       L%Deming%NULL%1,       S%Kodeboyina%NULL%1,       J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,       Ashley E.%Kim%NULL%1,       Naomi C.%Wilcox%NULL%1,       Jennifer K.%Logue%NULL%1,       Alex L.%Greninger%NULL%1,       Janet A.%Englund%NULL%1,       Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,       A. P.%Barker%NULL%2,       A. P.%Barker%NULL%0,       D. R.%Hillyard%NULL%1,       N.%Gilmore%NULL%1,       J. W.%Barrett%NULL%1,       R. R.%Orlandi%NULL%1,       S. M.%Shakir%NULL%1,       Alexander J.%McAdam%NULL%0,       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,       Connie%Trieu%NULL%1,       Sunil K%Pati%NULL%1,       Misty%Latting%NULL%1,       Joshua%Cooper%NULL%1,       Maria C%Seleme%NULL%1,       Sushma%Boppana%NULL%1,       Nitin%Arora%NULL%1,       William J%Britt%NULL%1,       Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,       Qianyuan%Li%NULL%1,       Jun%Zhou%NULL%1,       Wen%Ai%NULL%1,       Xiaoling%Zheng%NULL%1,       Jingjing%Zeng%NULL%1,       Yuwen%Liu%NULL%1,       Xiying%Xiang%NULL%1,       Rong%Guo%NULL%1,       Xiaoyin%Li%NULL%1,       Xiandi%Wu%NULL%1,       Haiying%Xu%NULL%1,       Ling%Jiang%NULL%1,       Huaqin%Zhang%NULL%1,       Jing%Chen%NULL%2,       Lili%Tian%NULL%1,       Jun%Luo%NULL%1,       Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,        Shaili%Gupta%NULL%2,        Shaili%Gupta%NULL%0,        Gary%Stack%NULL%1,        Sheldon M.%Campbell%NULL%1,        David R.%Peaper%NULL%2,        David R.%Peaper%NULL%0,        Louise M.%Dembry%NULL%1,        Ann%Fisher%NULL%1,        Asim F.%Tarabar%NULL%1,        Michael%Kozal%NULL%1,        Christopher B.%Ruser%NULL%1,        Selvakumar%Subbian%NULL%8,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0,        Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,         K.% Fonseca%null%1,         A. R.% Schneider%null%1,         J.% Hu%null%1,         N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,        Isabelle%Podglajen%NULL%1,        Maxime%Wack%NULL%1,        Edouard%Flamarion%NULL%1,        Tristan%Mirault%NULL%1,        Guillaume%Goudot%NULL%1,        Caroline%Hauw-Berlemont%NULL%2,        Laetitia%Le%NULL%1,        Eric%Caudron%NULL%1,        Sophie%Carrabin%NULL%1,        Julien%Rodary%NULL%1,        Tatiana%Ribeyre%NULL%1,        Laurent%Bélec%NULL%1,        David%Veyer%NULL%1,        Alexander J.%McAdam%NULL%7,        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,        Rachel%Jennings%NULL%2,        Rachel%Jennings%NULL%0,        Brian%Hart%NULL%1,        Gerard A.%Cangelosi%NULL%2,        Gerard A.%Cangelosi%NULL%0,        Rachel C.%Wood%NULL%1,        Kevin%Wehber%NULL%2,        Kevin%Wehber%NULL%0,        Prateek%Verma%NULL%1,        Deneen%Vojta%NULL%1,        Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,        Rose A.%Lee%NULL%1,        Ghee Rye%Lee%NULL%1,        Kate%Zulauf%NULL%1,        James E.%Kirby%NULL%1,        Ramy%Arnaout%NULL%1,         C.%Callahan%null%1,         R.% Lee%null%1,         G.% Lee%null%1,         K. E.% Zulauf%null%1,         J. E.% Kirby%null%1,         R. % Arnaout%null%1,        C.%Callahan%null%1,        R.% Lee%null%1,        G.% Lee%null%1,        K. E.% Zulauf%null%1,        J. E.% Kirby%null%1,        R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,        Greta%Van Slyke%NULL%1,        Dylan%Ehrbar%NULL%1,        Klemen%Strle%NULL%1,        Tugba%Yildirim%NULL%1,        Dominick A.%Centurioni%NULL%1,        Anne C.%Walsh%NULL%1,        Andrew K.%Chang%NULL%1,        Michael J.%Waxman%NULL%2,        Michael J.%Waxman%NULL%0,        Kirsten%St. George%NULL%1,        Alexander J.%McAdam%NULL%0,        Alexander J.%McAdam%NULL%0,        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,        F%Turner%NULL%1,        V%Slepnev%NULL%1,        A%Bacelar%NULL%1,        L%Deming%NULL%1,        S%Kodeboyina%NULL%1,        J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,        Ashley E.%Kim%NULL%1,        Naomi C.%Wilcox%NULL%1,        Jennifer K.%Logue%NULL%1,        Alex L.%Greninger%NULL%1,        Janet A.%Englund%NULL%1,        Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,        A. P.%Barker%NULL%2,        A. P.%Barker%NULL%0,        D. R.%Hillyard%NULL%1,        N.%Gilmore%NULL%1,        J. W.%Barrett%NULL%1,        R. R.%Orlandi%NULL%1,        S. M.%Shakir%NULL%1,        Alexander J.%McAdam%NULL%0,        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,        Connie%Trieu%NULL%1,        Sunil K%Pati%NULL%1,        Misty%Latting%NULL%1,        Joshua%Cooper%NULL%1,        Maria C%Seleme%NULL%1,        Sushma%Boppana%NULL%1,        Nitin%Arora%NULL%1,        William J%Britt%NULL%1,        Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,        Qianyuan%Li%NULL%1,        Jun%Zhou%NULL%1,        Wen%Ai%NULL%1,        Xiaoling%Zheng%NULL%1,        Jingjing%Zeng%NULL%1,        Yuwen%Liu%NULL%1,        Xiying%Xiang%NULL%1,        Rong%Guo%NULL%1,        Xiaoyin%Li%NULL%1,        Xiandi%Wu%NULL%1,        Haiying%Xu%NULL%1,        Ling%Jiang%NULL%1,        Huaqin%Zhang%NULL%1,        Jing%Chen%NULL%2,        Lili%Tian%NULL%1,        Jun%Luo%NULL%1,        Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -781,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -810,7 +876,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -839,7 +905,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -868,7 +934,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -897,7 +963,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -926,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -955,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -984,7 +1050,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1013,7 +1079,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1042,7 +1108,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1071,7 +1137,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="179">
   <si>
     <t>Doi</t>
   </si>
@@ -510,6 +510,72 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,        Qianyuan%Li%NULL%1,        Jun%Zhou%NULL%1,        Wen%Ai%NULL%1,        Xiaoling%Zheng%NULL%1,        Jingjing%Zeng%NULL%1,        Yuwen%Liu%NULL%1,        Xiying%Xiang%NULL%1,        Rong%Guo%NULL%1,        Xiaoyin%Li%NULL%1,        Xiandi%Wu%NULL%1,        Haiying%Xu%NULL%1,        Ling%Jiang%NULL%1,        Huaqin%Zhang%NULL%1,        Jing%Chen%NULL%2,        Lili%Tian%NULL%1,        Jun%Luo%NULL%1,        Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,         Shaili%Gupta%NULL%2,         Shaili%Gupta%NULL%0,         Gary%Stack%NULL%1,         Sheldon M.%Campbell%NULL%1,         David R.%Peaper%NULL%2,         David R.%Peaper%NULL%0,         Louise M.%Dembry%NULL%1,         Ann%Fisher%NULL%1,         Asim F.%Tarabar%NULL%1,         Michael%Kozal%NULL%1,         Christopher B.%Ruser%NULL%1,         Selvakumar%Subbian%NULL%8,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0,         Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,          K.% Fonseca%null%1,          A. R.% Schneider%null%1,          J.% Hu%null%1,          N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,         Isabelle%Podglajen%NULL%1,         Maxime%Wack%NULL%1,         Edouard%Flamarion%NULL%1,         Tristan%Mirault%NULL%1,         Guillaume%Goudot%NULL%1,         Caroline%Hauw-Berlemont%NULL%2,         Laetitia%Le%NULL%1,         Eric%Caudron%NULL%1,         Sophie%Carrabin%NULL%1,         Julien%Rodary%NULL%1,         Tatiana%Ribeyre%NULL%1,         Laurent%Bélec%NULL%1,         David%Veyer%NULL%1,         Alexander J.%McAdam%NULL%7,         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,         Rachel%Jennings%NULL%2,         Rachel%Jennings%NULL%0,         Brian%Hart%NULL%1,         Gerard A.%Cangelosi%NULL%2,         Gerard A.%Cangelosi%NULL%0,         Rachel C.%Wood%NULL%1,         Kevin%Wehber%NULL%2,         Kevin%Wehber%NULL%0,         Prateek%Verma%NULL%1,         Deneen%Vojta%NULL%1,         Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,         Rose A.%Lee%NULL%1,         Ghee Rye%Lee%NULL%1,         Kate%Zulauf%NULL%1,         James E.%Kirby%NULL%1,         Ramy%Arnaout%NULL%1,          C.%Callahan%null%1,          R.% Lee%null%1,          G.% Lee%null%1,          K. E.% Zulauf%null%1,          J. E.% Kirby%null%1,          R. % Arnaout%null%1,         C.%Callahan%null%1,         R.% Lee%null%1,         G.% Lee%null%1,         K. E.% Zulauf%null%1,         J. E.% Kirby%null%1,         R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,         Greta%Van Slyke%NULL%1,         Dylan%Ehrbar%NULL%1,         Klemen%Strle%NULL%1,         Tugba%Yildirim%NULL%1,         Dominick A.%Centurioni%NULL%1,         Anne C.%Walsh%NULL%1,         Andrew K.%Chang%NULL%1,         Michael J.%Waxman%NULL%2,         Michael J.%Waxman%NULL%0,         Kirsten%St. George%NULL%1,         Alexander J.%McAdam%NULL%0,         Alexander J.%McAdam%NULL%0,         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,         F%Turner%NULL%1,         V%Slepnev%NULL%1,         A%Bacelar%NULL%1,         L%Deming%NULL%1,         S%Kodeboyina%NULL%1,         J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,         Ashley E.%Kim%NULL%1,         Naomi C.%Wilcox%NULL%1,         Jennifer K.%Logue%NULL%1,         Alex L.%Greninger%NULL%1,         Janet A.%Englund%NULL%1,         Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,         A. P.%Barker%NULL%2,         A. P.%Barker%NULL%0,         D. R.%Hillyard%NULL%1,         N.%Gilmore%NULL%1,         J. W.%Barrett%NULL%1,         R. R.%Orlandi%NULL%1,         S. M.%Shakir%NULL%1,         Alexander J.%McAdam%NULL%0,         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,         Connie%Trieu%NULL%1,         Sunil K%Pati%NULL%1,         Misty%Latting%NULL%1,         Joshua%Cooper%NULL%1,         Maria C%Seleme%NULL%1,         Sushma%Boppana%NULL%1,         Nitin%Arora%NULL%1,         William J%Britt%NULL%1,         Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,         Qianyuan%Li%NULL%1,         Jun%Zhou%NULL%1,         Wen%Ai%NULL%1,         Xiaoling%Zheng%NULL%1,         Jingjing%Zeng%NULL%1,         Yuwen%Liu%NULL%1,         Xiying%Xiang%NULL%1,         Rong%Guo%NULL%1,         Xiaoyin%Li%NULL%1,         Xiandi%Wu%NULL%1,         Haiying%Xu%NULL%1,         Ling%Jiang%NULL%1,         Huaqin%Zhang%NULL%1,         Jing%Chen%NULL%2,         Lili%Tian%NULL%1,         Jun%Luo%NULL%1,         Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,          Shaili%Gupta%NULL%2,          Shaili%Gupta%NULL%0,          Gary%Stack%NULL%1,          Sheldon M.%Campbell%NULL%1,          David R.%Peaper%NULL%2,          David R.%Peaper%NULL%0,          Louise M.%Dembry%NULL%1,          Ann%Fisher%NULL%1,          Asim F.%Tarabar%NULL%1,          Michael%Kozal%NULL%1,          Christopher B.%Ruser%NULL%1,          Selvakumar%Subbian%NULL%8,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0,          Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,           K.% Fonseca%null%1,           A. R.% Schneider%null%1,           J.% Hu%null%1,           N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,          Isabelle%Podglajen%NULL%1,          Maxime%Wack%NULL%1,          Edouard%Flamarion%NULL%1,          Tristan%Mirault%NULL%1,          Guillaume%Goudot%NULL%1,          Caroline%Hauw-Berlemont%NULL%2,          Laetitia%Le%NULL%1,          Eric%Caudron%NULL%1,          Sophie%Carrabin%NULL%1,          Julien%Rodary%NULL%1,          Tatiana%Ribeyre%NULL%1,          Laurent%Bélec%NULL%1,          David%Veyer%NULL%1,          Alexander J.%McAdam%NULL%7,          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,          Rachel%Jennings%NULL%2,          Rachel%Jennings%NULL%0,          Brian%Hart%NULL%1,          Gerard A.%Cangelosi%NULL%2,          Gerard A.%Cangelosi%NULL%0,          Rachel C.%Wood%NULL%1,          Kevin%Wehber%NULL%2,          Kevin%Wehber%NULL%0,          Prateek%Verma%NULL%1,          Deneen%Vojta%NULL%1,          Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,          Rose A.%Lee%NULL%1,          Ghee Rye%Lee%NULL%1,          Kate%Zulauf%NULL%1,          James E.%Kirby%NULL%1,          Ramy%Arnaout%NULL%1,           C.%Callahan%null%1,           R.% Lee%null%1,           G.% Lee%null%1,           K. E.% Zulauf%null%1,           J. E.% Kirby%null%1,           R. % Arnaout%null%1,          C.%Callahan%null%1,          R.% Lee%null%1,          G.% Lee%null%1,          K. E.% Zulauf%null%1,          J. E.% Kirby%null%1,          R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,          Greta%Van Slyke%NULL%1,          Dylan%Ehrbar%NULL%1,          Klemen%Strle%NULL%1,          Tugba%Yildirim%NULL%1,          Dominick A.%Centurioni%NULL%1,          Anne C.%Walsh%NULL%1,          Andrew K.%Chang%NULL%1,          Michael J.%Waxman%NULL%2,          Michael J.%Waxman%NULL%0,          Kirsten%St. George%NULL%1,          Alexander J.%McAdam%NULL%0,          Alexander J.%McAdam%NULL%0,          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,          F%Turner%NULL%1,          V%Slepnev%NULL%1,          A%Bacelar%NULL%1,          L%Deming%NULL%1,          S%Kodeboyina%NULL%1,          J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,          Ashley E.%Kim%NULL%1,          Naomi C.%Wilcox%NULL%1,          Jennifer K.%Logue%NULL%1,          Alex L.%Greninger%NULL%1,          Janet A.%Englund%NULL%1,          Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,          A. P.%Barker%NULL%2,          A. P.%Barker%NULL%0,          D. R.%Hillyard%NULL%1,          N.%Gilmore%NULL%1,          J. W.%Barrett%NULL%1,          R. R.%Orlandi%NULL%1,          S. M.%Shakir%NULL%1,          Alexander J.%McAdam%NULL%0,          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,          Connie%Trieu%NULL%1,          Sunil K%Pati%NULL%1,          Misty%Latting%NULL%1,          Joshua%Cooper%NULL%1,          Maria C%Seleme%NULL%1,          Sushma%Boppana%NULL%1,          Nitin%Arora%NULL%1,          William J%Britt%NULL%1,          Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,          Qianyuan%Li%NULL%1,          Jun%Zhou%NULL%1,          Wen%Ai%NULL%1,          Xiaoling%Zheng%NULL%1,          Jingjing%Zeng%NULL%1,          Yuwen%Liu%NULL%1,          Xiying%Xiang%NULL%1,          Rong%Guo%NULL%1,          Xiaoyin%Li%NULL%1,          Xiandi%Wu%NULL%1,          Haiying%Xu%NULL%1,          Ling%Jiang%NULL%1,          Huaqin%Zhang%NULL%1,          Jing%Chen%NULL%2,          Lili%Tian%NULL%1,          Jun%Luo%NULL%1,          Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -847,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -876,7 +942,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -905,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -934,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -963,7 +1029,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -992,7 +1058,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1021,7 +1087,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1050,7 +1116,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1079,7 +1145,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1108,7 +1174,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1137,7 +1203,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -576,6 +576,72 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,          Qianyuan%Li%NULL%1,          Jun%Zhou%NULL%1,          Wen%Ai%NULL%1,          Xiaoling%Zheng%NULL%1,          Jingjing%Zeng%NULL%1,          Yuwen%Liu%NULL%1,          Xiying%Xiang%NULL%1,          Rong%Guo%NULL%1,          Xiaoyin%Li%NULL%1,          Xiandi%Wu%NULL%1,          Haiying%Xu%NULL%1,          Ling%Jiang%NULL%1,          Huaqin%Zhang%NULL%1,          Jing%Chen%NULL%2,          Lili%Tian%NULL%1,          Jun%Luo%NULL%1,          Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,           Shaili%Gupta%NULL%2,           Shaili%Gupta%NULL%0,           Gary%Stack%NULL%1,           Sheldon M.%Campbell%NULL%1,           David R.%Peaper%NULL%2,           David R.%Peaper%NULL%0,           Louise M.%Dembry%NULL%1,           Ann%Fisher%NULL%1,           Asim F.%Tarabar%NULL%1,           Michael%Kozal%NULL%1,           Christopher B.%Ruser%NULL%1,           Selvakumar%Subbian%NULL%8,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0,           Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,            K.% Fonseca%null%1,            A. R.% Schneider%null%1,            J.% Hu%null%1,            N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,           Isabelle%Podglajen%NULL%1,           Maxime%Wack%NULL%1,           Edouard%Flamarion%NULL%1,           Tristan%Mirault%NULL%1,           Guillaume%Goudot%NULL%1,           Caroline%Hauw-Berlemont%NULL%2,           Laetitia%Le%NULL%1,           Eric%Caudron%NULL%1,           Sophie%Carrabin%NULL%1,           Julien%Rodary%NULL%1,           Tatiana%Ribeyre%NULL%1,           Laurent%Bélec%NULL%1,           David%Veyer%NULL%1,           Alexander J.%McAdam%NULL%7,           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,           Rachel%Jennings%NULL%2,           Rachel%Jennings%NULL%0,           Brian%Hart%NULL%1,           Gerard A.%Cangelosi%NULL%2,           Gerard A.%Cangelosi%NULL%0,           Rachel C.%Wood%NULL%1,           Kevin%Wehber%NULL%2,           Kevin%Wehber%NULL%0,           Prateek%Verma%NULL%1,           Deneen%Vojta%NULL%1,           Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,           Rose A.%Lee%NULL%1,           Ghee Rye%Lee%NULL%1,           Kate%Zulauf%NULL%1,           James E.%Kirby%NULL%1,           Ramy%Arnaout%NULL%1,            C.%Callahan%null%1,            R.% Lee%null%1,            G.% Lee%null%1,            K. E.% Zulauf%null%1,            J. E.% Kirby%null%1,            R. % Arnaout%null%1,           C.%Callahan%null%1,           R.% Lee%null%1,           G.% Lee%null%1,           K. E.% Zulauf%null%1,           J. E.% Kirby%null%1,           R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,           Greta%Van Slyke%NULL%1,           Dylan%Ehrbar%NULL%1,           Klemen%Strle%NULL%1,           Tugba%Yildirim%NULL%1,           Dominick A.%Centurioni%NULL%1,           Anne C.%Walsh%NULL%1,           Andrew K.%Chang%NULL%1,           Michael J.%Waxman%NULL%2,           Michael J.%Waxman%NULL%0,           Kirsten%St. George%NULL%1,           Alexander J.%McAdam%NULL%0,           Alexander J.%McAdam%NULL%0,           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,           F%Turner%NULL%1,           V%Slepnev%NULL%1,           A%Bacelar%NULL%1,           L%Deming%NULL%1,           S%Kodeboyina%NULL%1,           J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,           Ashley E.%Kim%NULL%1,           Naomi C.%Wilcox%NULL%1,           Jennifer K.%Logue%NULL%1,           Alex L.%Greninger%NULL%1,           Janet A.%Englund%NULL%1,           Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,           A. P.%Barker%NULL%2,           A. P.%Barker%NULL%0,           D. R.%Hillyard%NULL%1,           N.%Gilmore%NULL%1,           J. W.%Barrett%NULL%1,           R. R.%Orlandi%NULL%1,           S. M.%Shakir%NULL%1,           Alexander J.%McAdam%NULL%0,           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,           Connie%Trieu%NULL%1,           Sunil K%Pati%NULL%1,           Misty%Latting%NULL%1,           Joshua%Cooper%NULL%1,           Maria C%Seleme%NULL%1,           Sushma%Boppana%NULL%1,           Nitin%Arora%NULL%1,           William J%Britt%NULL%1,           Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,           Qianyuan%Li%NULL%1,           Jun%Zhou%NULL%1,           Wen%Ai%NULL%1,           Xiaoling%Zheng%NULL%1,           Jingjing%Zeng%NULL%1,           Yuwen%Liu%NULL%1,           Xiying%Xiang%NULL%1,           Rong%Guo%NULL%1,           Xiaoyin%Li%NULL%1,           Xiandi%Wu%NULL%1,           Haiying%Xu%NULL%1,           Ling%Jiang%NULL%1,           Huaqin%Zhang%NULL%1,           Jing%Chen%NULL%2,           Lili%Tian%NULL%1,           Jun%Luo%NULL%1,           Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,            Shaili%Gupta%NULL%2,            Shaili%Gupta%NULL%0,            Gary%Stack%NULL%1,            Sheldon M.%Campbell%NULL%1,            David R.%Peaper%NULL%2,            David R.%Peaper%NULL%0,            Louise M.%Dembry%NULL%1,            Ann%Fisher%NULL%1,            Asim F.%Tarabar%NULL%1,            Michael%Kozal%NULL%1,            Christopher B.%Ruser%NULL%1,            Selvakumar%Subbian%NULL%8,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0,            Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,             K.% Fonseca%null%1,             A. R.% Schneider%null%1,             J.% Hu%null%1,             N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,            Isabelle%Podglajen%NULL%1,            Maxime%Wack%NULL%1,            Edouard%Flamarion%NULL%1,            Tristan%Mirault%NULL%1,            Guillaume%Goudot%NULL%1,            Caroline%Hauw-Berlemont%NULL%2,            Laetitia%Le%NULL%1,            Eric%Caudron%NULL%1,            Sophie%Carrabin%NULL%1,            Julien%Rodary%NULL%1,            Tatiana%Ribeyre%NULL%1,            Laurent%Bélec%NULL%1,            David%Veyer%NULL%1,            Alexander J.%McAdam%NULL%7,            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,            Rachel%Jennings%NULL%2,            Rachel%Jennings%NULL%0,            Brian%Hart%NULL%1,            Gerard A.%Cangelosi%NULL%2,            Gerard A.%Cangelosi%NULL%0,            Rachel C.%Wood%NULL%1,            Kevin%Wehber%NULL%2,            Kevin%Wehber%NULL%0,            Prateek%Verma%NULL%1,            Deneen%Vojta%NULL%1,            Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,            Rose A.%Lee%NULL%1,            Ghee Rye%Lee%NULL%1,            Kate%Zulauf%NULL%1,            James E.%Kirby%NULL%1,            Ramy%Arnaout%NULL%1,             C.%Callahan%null%1,             R.% Lee%null%1,             G.% Lee%null%1,             K. E.% Zulauf%null%1,             J. E.% Kirby%null%1,             R. % Arnaout%null%1,            C.%Callahan%null%1,            R.% Lee%null%1,            G.% Lee%null%1,            K. E.% Zulauf%null%1,            J. E.% Kirby%null%1,            R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,            Greta%Van Slyke%NULL%1,            Dylan%Ehrbar%NULL%1,            Klemen%Strle%NULL%1,            Tugba%Yildirim%NULL%1,            Dominick A.%Centurioni%NULL%1,            Anne C.%Walsh%NULL%1,            Andrew K.%Chang%NULL%1,            Michael J.%Waxman%NULL%2,            Michael J.%Waxman%NULL%0,            Kirsten%St. George%NULL%1,            Alexander J.%McAdam%NULL%0,            Alexander J.%McAdam%NULL%0,            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,            F%Turner%NULL%1,            V%Slepnev%NULL%1,            A%Bacelar%NULL%1,            L%Deming%NULL%1,            S%Kodeboyina%NULL%1,            J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,            Ashley E.%Kim%NULL%1,            Naomi C.%Wilcox%NULL%1,            Jennifer K.%Logue%NULL%1,            Alex L.%Greninger%NULL%1,            Janet A.%Englund%NULL%1,            Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,            A. P.%Barker%NULL%2,            A. P.%Barker%NULL%0,            D. R.%Hillyard%NULL%1,            N.%Gilmore%NULL%1,            J. W.%Barrett%NULL%1,            R. R.%Orlandi%NULL%1,            S. M.%Shakir%NULL%1,            Alexander J.%McAdam%NULL%0,            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,            Connie%Trieu%NULL%1,            Sunil K%Pati%NULL%1,            Misty%Latting%NULL%1,            Joshua%Cooper%NULL%1,            Maria C%Seleme%NULL%1,            Sushma%Boppana%NULL%1,            Nitin%Arora%NULL%1,            William J%Britt%NULL%1,            Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,            Qianyuan%Li%NULL%1,            Jun%Zhou%NULL%1,            Wen%Ai%NULL%1,            Xiaoling%Zheng%NULL%1,            Jingjing%Zeng%NULL%1,            Yuwen%Liu%NULL%1,            Xiying%Xiang%NULL%1,            Rong%Guo%NULL%1,            Xiaoyin%Li%NULL%1,            Xiandi%Wu%NULL%1,            Haiying%Xu%NULL%1,            Ling%Jiang%NULL%1,            Huaqin%Zhang%NULL%1,            Jing%Chen%NULL%2,            Lili%Tian%NULL%1,            Jun%Luo%NULL%1,            Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -913,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -942,7 +1008,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -971,7 +1037,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1000,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1029,7 +1095,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1058,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1087,7 +1153,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1116,7 +1182,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1145,7 +1211,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1174,7 +1240,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1203,7 +1269,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="212">
   <si>
     <t>Doi</t>
   </si>
@@ -642,6 +642,39 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,            Qianyuan%Li%NULL%1,            Jun%Zhou%NULL%1,            Wen%Ai%NULL%1,            Xiaoling%Zheng%NULL%1,            Jingjing%Zeng%NULL%1,            Yuwen%Liu%NULL%1,            Xiying%Xiang%NULL%1,            Rong%Guo%NULL%1,            Xiaoyin%Li%NULL%1,            Xiandi%Wu%NULL%1,            Haiying%Xu%NULL%1,            Ling%Jiang%NULL%1,            Huaqin%Zhang%NULL%1,            Jing%Chen%NULL%2,            Lili%Tian%NULL%1,            Jun%Luo%NULL%1,            Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,             Shaili%Gupta%NULL%2,             Shaili%Gupta%NULL%0,             Gary%Stack%NULL%1,             Sheldon M.%Campbell%NULL%1,             David R.%Peaper%NULL%2,             David R.%Peaper%NULL%0,             Louise M.%Dembry%NULL%1,             Ann%Fisher%NULL%1,             Asim F.%Tarabar%NULL%1,             Michael%Kozal%NULL%1,             Christopher B.%Ruser%NULL%1,             Selvakumar%Subbian%NULL%8,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0,             Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,              K.% Fonseca%null%1,              A. R.% Schneider%null%1,              J.% Hu%null%1,              N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,             Isabelle%Podglajen%NULL%1,             Maxime%Wack%NULL%1,             Edouard%Flamarion%NULL%1,             Tristan%Mirault%NULL%1,             Guillaume%Goudot%NULL%1,             Caroline%Hauw-Berlemont%NULL%2,             Laetitia%Le%NULL%1,             Eric%Caudron%NULL%1,             Sophie%Carrabin%NULL%1,             Julien%Rodary%NULL%1,             Tatiana%Ribeyre%NULL%1,             Laurent%Bélec%NULL%1,             David%Veyer%NULL%1,             Alexander J.%McAdam%NULL%7,             Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,             Rachel%Jennings%NULL%2,             Rachel%Jennings%NULL%0,             Brian%Hart%NULL%1,             Gerard A.%Cangelosi%NULL%2,             Gerard A.%Cangelosi%NULL%0,             Rachel C.%Wood%NULL%1,             Kevin%Wehber%NULL%2,             Kevin%Wehber%NULL%0,             Prateek%Verma%NULL%1,             Deneen%Vojta%NULL%1,             Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,             Rose A.%Lee%NULL%1,             Ghee Rye%Lee%NULL%1,             Kate%Zulauf%NULL%1,             James E.%Kirby%NULL%1,             Ramy%Arnaout%NULL%1,              C.%Callahan%null%1,              R.% Lee%null%1,              G.% Lee%null%1,              K. E.% Zulauf%null%1,              J. E.% Kirby%null%1,              R. % Arnaout%null%1,             C.%Callahan%null%1,             R.% Lee%null%1,             G.% Lee%null%1,             K. E.% Zulauf%null%1,             J. E.% Kirby%null%1,             R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,             Greta%Van Slyke%NULL%1,             Dylan%Ehrbar%NULL%1,             Klemen%Strle%NULL%1,             Tugba%Yildirim%NULL%1,             Dominick A.%Centurioni%NULL%1,             Anne C.%Walsh%NULL%1,             Andrew K.%Chang%NULL%1,             Michael J.%Waxman%NULL%2,             Michael J.%Waxman%NULL%0,             Kirsten%St. George%NULL%1,             Alexander J.%McAdam%NULL%0,             Alexander J.%McAdam%NULL%0,             Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,             F%Turner%NULL%1,             V%Slepnev%NULL%1,             A%Bacelar%NULL%1,             L%Deming%NULL%1,             S%Kodeboyina%NULL%1,             J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,             Ashley E.%Kim%NULL%1,             Naomi C.%Wilcox%NULL%1,             Jennifer K.%Logue%NULL%1,             Alex L.%Greninger%NULL%1,             Janet A.%Englund%NULL%1,             Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,             A. P.%Barker%NULL%2,             A. P.%Barker%NULL%0,             D. R.%Hillyard%NULL%1,             N.%Gilmore%NULL%1,             J. W.%Barrett%NULL%1,             R. R.%Orlandi%NULL%1,             S. M.%Shakir%NULL%1,             Alexander J.%McAdam%NULL%0,             Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,             Connie%Trieu%NULL%1,             Sunil K%Pati%NULL%1,             Misty%Latting%NULL%1,             Joshua%Cooper%NULL%1,             Maria C%Seleme%NULL%1,             Sushma%Boppana%NULL%1,             Nitin%Arora%NULL%1,             William J%Britt%NULL%1,             Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,             Qianyuan%Li%NULL%1,             Jun%Zhou%NULL%1,             Wen%Ai%NULL%1,             Xiaoling%Zheng%NULL%1,             Jingjing%Zeng%NULL%1,             Yuwen%Liu%NULL%1,             Xiying%Xiang%NULL%1,             Rong%Guo%NULL%1,             Xiaoyin%Li%NULL%1,             Xiandi%Wu%NULL%1,             Haiying%Xu%NULL%1,             Ling%Jiang%NULL%1,             Huaqin%Zhang%NULL%1,             Jing%Chen%NULL%2,             Lili%Tian%NULL%1,             Jun%Luo%NULL%1,             Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1012,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1008,13 +1041,13 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -1037,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1066,7 +1099,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1095,7 +1128,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1124,7 +1157,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1153,7 +1186,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1182,7 +1215,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1211,7 +1244,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1240,7 +1273,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1269,7 +1302,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="223">
   <si>
     <t>Doi</t>
   </si>
@@ -675,6 +675,39 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,             Qianyuan%Li%NULL%1,             Jun%Zhou%NULL%1,             Wen%Ai%NULL%1,             Xiaoling%Zheng%NULL%1,             Jingjing%Zeng%NULL%1,             Yuwen%Liu%NULL%1,             Xiying%Xiang%NULL%1,             Rong%Guo%NULL%1,             Xiaoyin%Li%NULL%1,             Xiandi%Wu%NULL%1,             Haiying%Xu%NULL%1,             Ling%Jiang%NULL%1,             Huaqin%Zhang%NULL%1,             Jing%Chen%NULL%2,             Lili%Tian%NULL%1,             Jun%Luo%NULL%1,             Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,              Shaili%Gupta%NULL%2,              Shaili%Gupta%NULL%0,              Gary%Stack%NULL%1,              Sheldon M.%Campbell%NULL%1,              David R.%Peaper%NULL%2,              David R.%Peaper%NULL%0,              Louise M.%Dembry%NULL%1,              Ann%Fisher%NULL%1,              Asim F.%Tarabar%NULL%1,              Michael%Kozal%NULL%1,              Christopher B.%Ruser%NULL%1,              Selvakumar%Subbian%NULL%8,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0,              Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,               K.% Fonseca%null%1,               A. R.% Schneider%null%1,               J.% Hu%null%1,               N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,              Isabelle%Podglajen%NULL%1,              Maxime%Wack%NULL%1,              Edouard%Flamarion%NULL%1,              Tristan%Mirault%NULL%1,              Guillaume%Goudot%NULL%1,              Caroline%Hauw-Berlemont%NULL%2,              Laetitia%Le%NULL%1,              Eric%Caudron%NULL%1,              Sophie%Carrabin%NULL%1,              Julien%Rodary%NULL%1,              Tatiana%Ribeyre%NULL%1,              Laurent%Bélec%NULL%1,              David%Veyer%NULL%1,              Alexander J.%McAdam%NULL%7,              Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,              Rachel%Jennings%NULL%2,              Rachel%Jennings%NULL%0,              Brian%Hart%NULL%1,              Gerard A.%Cangelosi%NULL%2,              Gerard A.%Cangelosi%NULL%0,              Rachel C.%Wood%NULL%1,              Kevin%Wehber%NULL%2,              Kevin%Wehber%NULL%0,              Prateek%Verma%NULL%1,              Deneen%Vojta%NULL%1,              Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,              Rose A.%Lee%NULL%1,              Ghee Rye%Lee%NULL%1,              Kate%Zulauf%NULL%1,              James E.%Kirby%NULL%1,              Ramy%Arnaout%NULL%1,               C.%Callahan%null%1,               R.% Lee%null%1,               G.% Lee%null%1,               K. E.% Zulauf%null%1,               J. E.% Kirby%null%1,               R. % Arnaout%null%1,              C.%Callahan%null%1,              R.% Lee%null%1,              G.% Lee%null%1,              K. E.% Zulauf%null%1,              J. E.% Kirby%null%1,              R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,              Greta%Van Slyke%NULL%1,              Dylan%Ehrbar%NULL%1,              Klemen%Strle%NULL%1,              Tugba%Yildirim%NULL%1,              Dominick A.%Centurioni%NULL%1,              Anne C.%Walsh%NULL%1,              Andrew K.%Chang%NULL%1,              Michael J.%Waxman%NULL%2,              Michael J.%Waxman%NULL%0,              Kirsten%St. George%NULL%1,              Alexander J.%McAdam%NULL%0,              Alexander J.%McAdam%NULL%0,              Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,              F%Turner%NULL%1,              V%Slepnev%NULL%1,              A%Bacelar%NULL%1,              L%Deming%NULL%1,              S%Kodeboyina%NULL%1,              J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,              Ashley E.%Kim%NULL%1,              Naomi C.%Wilcox%NULL%1,              Jennifer K.%Logue%NULL%1,              Alex L.%Greninger%NULL%1,              Janet A.%Englund%NULL%1,              Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,              A. P.%Barker%NULL%2,              A. P.%Barker%NULL%0,              D. R.%Hillyard%NULL%1,              N.%Gilmore%NULL%1,              J. W.%Barrett%NULL%1,              R. R.%Orlandi%NULL%1,              S. M.%Shakir%NULL%1,              Alexander J.%McAdam%NULL%0,              Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,              Connie%Trieu%NULL%1,              Sunil K%Pati%NULL%1,              Misty%Latting%NULL%1,              Joshua%Cooper%NULL%1,              Maria C%Seleme%NULL%1,              Sushma%Boppana%NULL%1,              Nitin%Arora%NULL%1,              William J%Britt%NULL%1,              Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,              Qianyuan%Li%NULL%1,              Jun%Zhou%NULL%1,              Wen%Ai%NULL%1,              Xiaoling%Zheng%NULL%1,              Jingjing%Zeng%NULL%1,              Yuwen%Liu%NULL%1,              Xiying%Xiang%NULL%1,              Rong%Guo%NULL%1,              Xiaoyin%Li%NULL%1,              Xiandi%Wu%NULL%1,              Haiying%Xu%NULL%1,              Ling%Jiang%NULL%1,              Huaqin%Zhang%NULL%1,              Jing%Chen%NULL%2,              Lili%Tian%NULL%1,              Jun%Luo%NULL%1,              Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1041,7 +1074,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1070,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1099,7 +1132,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1128,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1157,7 +1190,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1186,7 +1219,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1215,7 +1248,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1244,7 +1277,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1273,7 +1306,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1302,7 +1335,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="245">
   <si>
     <t>Doi</t>
   </si>
@@ -708,6 +708,72 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,              Qianyuan%Li%NULL%1,              Jun%Zhou%NULL%1,              Wen%Ai%NULL%1,              Xiaoling%Zheng%NULL%1,              Jingjing%Zeng%NULL%1,              Yuwen%Liu%NULL%1,              Xiying%Xiang%NULL%1,              Rong%Guo%NULL%1,              Xiaoyin%Li%NULL%1,              Xiandi%Wu%NULL%1,              Haiying%Xu%NULL%1,              Ling%Jiang%NULL%1,              Huaqin%Zhang%NULL%1,              Jing%Chen%NULL%2,              Lili%Tian%NULL%1,              Jun%Luo%NULL%1,              Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,               Shaili%Gupta%NULL%2,               Shaili%Gupta%NULL%0,               Gary%Stack%NULL%1,               Sheldon M.%Campbell%NULL%1,               David R.%Peaper%NULL%2,               David R.%Peaper%NULL%0,               Louise M.%Dembry%NULL%1,               Ann%Fisher%NULL%1,               Asim F.%Tarabar%NULL%1,               Michael%Kozal%NULL%1,               Christopher B.%Ruser%NULL%1,               Selvakumar%Subbian%NULL%8,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0,               Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                K.% Fonseca%null%1,                A. R.% Schneider%null%1,                J.% Hu%null%1,                N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,               Isabelle%Podglajen%NULL%1,               Maxime%Wack%NULL%1,               Edouard%Flamarion%NULL%1,               Tristan%Mirault%NULL%1,               Guillaume%Goudot%NULL%1,               Caroline%Hauw-Berlemont%NULL%2,               Laetitia%Le%NULL%1,               Eric%Caudron%NULL%1,               Sophie%Carrabin%NULL%1,               Julien%Rodary%NULL%1,               Tatiana%Ribeyre%NULL%1,               Laurent%Bélec%NULL%1,               David%Veyer%NULL%1,               Alexander J.%McAdam%NULL%7,               Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,               Rachel%Jennings%NULL%2,               Rachel%Jennings%NULL%0,               Brian%Hart%NULL%1,               Gerard A.%Cangelosi%NULL%2,               Gerard A.%Cangelosi%NULL%0,               Rachel C.%Wood%NULL%1,               Kevin%Wehber%NULL%2,               Kevin%Wehber%NULL%0,               Prateek%Verma%NULL%1,               Deneen%Vojta%NULL%1,               Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,               Rose A.%Lee%NULL%1,               Ghee Rye%Lee%NULL%1,               Kate%Zulauf%NULL%1,               James E.%Kirby%NULL%1,               Ramy%Arnaout%NULL%1,                C.%Callahan%null%1,                R.% Lee%null%1,                G.% Lee%null%1,                K. E.% Zulauf%null%1,                J. E.% Kirby%null%1,                R. % Arnaout%null%1,               C.%Callahan%null%1,               R.% Lee%null%1,               G.% Lee%null%1,               K. E.% Zulauf%null%1,               J. E.% Kirby%null%1,               R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,               Greta%Van Slyke%NULL%1,               Dylan%Ehrbar%NULL%1,               Klemen%Strle%NULL%1,               Tugba%Yildirim%NULL%1,               Dominick A.%Centurioni%NULL%1,               Anne C.%Walsh%NULL%1,               Andrew K.%Chang%NULL%1,               Michael J.%Waxman%NULL%2,               Michael J.%Waxman%NULL%0,               Kirsten%St. George%NULL%1,               Alexander J.%McAdam%NULL%0,               Alexander J.%McAdam%NULL%0,               Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,               F%Turner%NULL%1,               V%Slepnev%NULL%1,               A%Bacelar%NULL%1,               L%Deming%NULL%1,               S%Kodeboyina%NULL%1,               J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,               Ashley E.%Kim%NULL%1,               Naomi C.%Wilcox%NULL%1,               Jennifer K.%Logue%NULL%1,               Alex L.%Greninger%NULL%1,               Janet A.%Englund%NULL%1,               Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,               A. P.%Barker%NULL%2,               A. P.%Barker%NULL%0,               D. R.%Hillyard%NULL%1,               N.%Gilmore%NULL%1,               J. W.%Barrett%NULL%1,               R. R.%Orlandi%NULL%1,               S. M.%Shakir%NULL%1,               Alexander J.%McAdam%NULL%0,               Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,               Connie%Trieu%NULL%1,               Sunil K%Pati%NULL%1,               Misty%Latting%NULL%1,               Joshua%Cooper%NULL%1,               Maria C%Seleme%NULL%1,               Sushma%Boppana%NULL%1,               Nitin%Arora%NULL%1,               William J%Britt%NULL%1,               Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,               Qianyuan%Li%NULL%1,               Jun%Zhou%NULL%1,               Wen%Ai%NULL%1,               Xiaoling%Zheng%NULL%1,               Jingjing%Zeng%NULL%1,               Yuwen%Liu%NULL%1,               Xiying%Xiang%NULL%1,               Rong%Guo%NULL%1,               Xiaoyin%Li%NULL%1,               Xiandi%Wu%NULL%1,               Haiying%Xu%NULL%1,               Ling%Jiang%NULL%1,               Huaqin%Zhang%NULL%1,               Jing%Chen%NULL%2,               Lili%Tian%NULL%1,               Jun%Luo%NULL%1,               Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                Shaili%Gupta%NULL%2,                Shaili%Gupta%NULL%0,                Gary%Stack%NULL%1,                Sheldon M.%Campbell%NULL%1,                David R.%Peaper%NULL%2,                David R.%Peaper%NULL%0,                Louise M.%Dembry%NULL%1,                Ann%Fisher%NULL%1,                Asim F.%Tarabar%NULL%1,                Michael%Kozal%NULL%1,                Christopher B.%Ruser%NULL%1,                Selvakumar%Subbian%NULL%8,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0,                Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                 K.% Fonseca%null%1,                 A. R.% Schneider%null%1,                 J.% Hu%null%1,                 N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                Isabelle%Podglajen%NULL%1,                Maxime%Wack%NULL%1,                Edouard%Flamarion%NULL%1,                Tristan%Mirault%NULL%1,                Guillaume%Goudot%NULL%1,                Caroline%Hauw-Berlemont%NULL%2,                Laetitia%Le%NULL%1,                Eric%Caudron%NULL%1,                Sophie%Carrabin%NULL%1,                Julien%Rodary%NULL%1,                Tatiana%Ribeyre%NULL%1,                Laurent%Bélec%NULL%1,                David%Veyer%NULL%1,                Alexander J.%McAdam%NULL%7,                Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                Rachel%Jennings%NULL%2,                Rachel%Jennings%NULL%0,                Brian%Hart%NULL%1,                Gerard A.%Cangelosi%NULL%2,                Gerard A.%Cangelosi%NULL%0,                Rachel C.%Wood%NULL%1,                Kevin%Wehber%NULL%2,                Kevin%Wehber%NULL%0,                Prateek%Verma%NULL%1,                Deneen%Vojta%NULL%1,                Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                Rose A.%Lee%NULL%1,                Ghee Rye%Lee%NULL%1,                Kate%Zulauf%NULL%1,                James E.%Kirby%NULL%1,                Ramy%Arnaout%NULL%1,                 C.%Callahan%null%1,                 R.% Lee%null%1,                 G.% Lee%null%1,                 K. E.% Zulauf%null%1,                 J. E.% Kirby%null%1,                 R. % Arnaout%null%1,                C.%Callahan%null%1,                R.% Lee%null%1,                G.% Lee%null%1,                K. E.% Zulauf%null%1,                J. E.% Kirby%null%1,                R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                Greta%Van Slyke%NULL%1,                Dylan%Ehrbar%NULL%1,                Klemen%Strle%NULL%1,                Tugba%Yildirim%NULL%1,                Dominick A.%Centurioni%NULL%1,                Anne C.%Walsh%NULL%1,                Andrew K.%Chang%NULL%1,                Michael J.%Waxman%NULL%2,                Michael J.%Waxman%NULL%0,                Kirsten%St. George%NULL%1,                Alexander J.%McAdam%NULL%0,                Alexander J.%McAdam%NULL%0,                Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                F%Turner%NULL%1,                V%Slepnev%NULL%1,                A%Bacelar%NULL%1,                L%Deming%NULL%1,                S%Kodeboyina%NULL%1,                J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                Ashley E.%Kim%NULL%1,                Naomi C.%Wilcox%NULL%1,                Jennifer K.%Logue%NULL%1,                Alex L.%Greninger%NULL%1,                Janet A.%Englund%NULL%1,                Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                A. P.%Barker%NULL%2,                A. P.%Barker%NULL%0,                D. R.%Hillyard%NULL%1,                N.%Gilmore%NULL%1,                J. W.%Barrett%NULL%1,                R. R.%Orlandi%NULL%1,                S. M.%Shakir%NULL%1,                Alexander J.%McAdam%NULL%0,                Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                Connie%Trieu%NULL%1,                Sunil K%Pati%NULL%1,                Misty%Latting%NULL%1,                Joshua%Cooper%NULL%1,                Maria C%Seleme%NULL%1,                Sushma%Boppana%NULL%1,                Nitin%Arora%NULL%1,                William J%Britt%NULL%1,                Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                Qianyuan%Li%NULL%1,                Jun%Zhou%NULL%1,                Wen%Ai%NULL%1,                Xiaoling%Zheng%NULL%1,                Jingjing%Zeng%NULL%1,                Yuwen%Liu%NULL%1,                Xiying%Xiang%NULL%1,                Rong%Guo%NULL%1,                Xiaoyin%Li%NULL%1,                Xiandi%Wu%NULL%1,                Haiying%Xu%NULL%1,                Ling%Jiang%NULL%1,                Huaqin%Zhang%NULL%1,                Jing%Chen%NULL%2,                Lili%Tian%NULL%1,                Jun%Luo%NULL%1,                Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1074,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1103,7 +1169,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1132,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1161,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1190,7 +1256,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1219,7 +1285,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1248,7 +1314,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1277,7 +1343,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1306,7 +1372,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1335,7 +1401,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="256">
   <si>
     <t>Doi</t>
   </si>
@@ -774,6 +774,39 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,                Qianyuan%Li%NULL%1,                Jun%Zhou%NULL%1,                Wen%Ai%NULL%1,                Xiaoling%Zheng%NULL%1,                Jingjing%Zeng%NULL%1,                Yuwen%Liu%NULL%1,                Xiying%Xiang%NULL%1,                Rong%Guo%NULL%1,                Xiaoyin%Li%NULL%1,                Xiandi%Wu%NULL%1,                Haiying%Xu%NULL%1,                Ling%Jiang%NULL%1,                Huaqin%Zhang%NULL%1,                Jing%Chen%NULL%2,                Lili%Tian%NULL%1,                Jun%Luo%NULL%1,                Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                 Shaili%Gupta%NULL%2,                 Shaili%Gupta%NULL%0,                 Gary%Stack%NULL%1,                 Sheldon M.%Campbell%NULL%1,                 David R.%Peaper%NULL%2,                 David R.%Peaper%NULL%0,                 Louise M.%Dembry%NULL%1,                 Ann%Fisher%NULL%1,                 Asim F.%Tarabar%NULL%1,                 Michael%Kozal%NULL%1,                 Christopher B.%Ruser%NULL%1,                 Selvakumar%Subbian%NULL%8,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0,                 Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                  K.% Fonseca%null%1,                  A. R.% Schneider%null%1,                  J.% Hu%null%1,                  N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                 Isabelle%Podglajen%NULL%1,                 Maxime%Wack%NULL%1,                 Edouard%Flamarion%NULL%1,                 Tristan%Mirault%NULL%1,                 Guillaume%Goudot%NULL%1,                 Caroline%Hauw-Berlemont%NULL%2,                 Laetitia%Le%NULL%1,                 Eric%Caudron%NULL%1,                 Sophie%Carrabin%NULL%1,                 Julien%Rodary%NULL%1,                 Tatiana%Ribeyre%NULL%1,                 Laurent%Bélec%NULL%1,                 David%Veyer%NULL%1,                 Alexander J.%McAdam%NULL%7,                 Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                 Rachel%Jennings%NULL%2,                 Rachel%Jennings%NULL%0,                 Brian%Hart%NULL%1,                 Gerard A.%Cangelosi%NULL%2,                 Gerard A.%Cangelosi%NULL%0,                 Rachel C.%Wood%NULL%1,                 Kevin%Wehber%NULL%2,                 Kevin%Wehber%NULL%0,                 Prateek%Verma%NULL%1,                 Deneen%Vojta%NULL%1,                 Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                 Rose A.%Lee%NULL%1,                 Ghee Rye%Lee%NULL%1,                 Kate%Zulauf%NULL%1,                 James E.%Kirby%NULL%1,                 Ramy%Arnaout%NULL%1,                  C.%Callahan%null%1,                  R.% Lee%null%1,                  G.% Lee%null%1,                  K. E.% Zulauf%null%1,                  J. E.% Kirby%null%1,                  R. % Arnaout%null%1,                 C.%Callahan%null%1,                 R.% Lee%null%1,                 G.% Lee%null%1,                 K. E.% Zulauf%null%1,                 J. E.% Kirby%null%1,                 R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                 Greta%Van Slyke%NULL%1,                 Dylan%Ehrbar%NULL%1,                 Klemen%Strle%NULL%1,                 Tugba%Yildirim%NULL%1,                 Dominick A.%Centurioni%NULL%1,                 Anne C.%Walsh%NULL%1,                 Andrew K.%Chang%NULL%1,                 Michael J.%Waxman%NULL%2,                 Michael J.%Waxman%NULL%0,                 Kirsten%St. George%NULL%1,                 Alexander J.%McAdam%NULL%0,                 Alexander J.%McAdam%NULL%0,                 Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                 F%Turner%NULL%1,                 V%Slepnev%NULL%1,                 A%Bacelar%NULL%1,                 L%Deming%NULL%1,                 S%Kodeboyina%NULL%1,                 J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                 Ashley E.%Kim%NULL%1,                 Naomi C.%Wilcox%NULL%1,                 Jennifer K.%Logue%NULL%1,                 Alex L.%Greninger%NULL%1,                 Janet A.%Englund%NULL%1,                 Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                 A. P.%Barker%NULL%2,                 A. P.%Barker%NULL%0,                 D. R.%Hillyard%NULL%1,                 N.%Gilmore%NULL%1,                 J. W.%Barrett%NULL%1,                 R. R.%Orlandi%NULL%1,                 S. M.%Shakir%NULL%1,                 Alexander J.%McAdam%NULL%0,                 Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                 Connie%Trieu%NULL%1,                 Sunil K%Pati%NULL%1,                 Misty%Latting%NULL%1,                 Joshua%Cooper%NULL%1,                 Maria C%Seleme%NULL%1,                 Sushma%Boppana%NULL%1,                 Nitin%Arora%NULL%1,                 William J%Britt%NULL%1,                 Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%2,                 Qianyuan%Li%NULL%1,                 Jun%Zhou%NULL%1,                 Wen%Ai%NULL%1,                 Xiaoling%Zheng%NULL%1,                 Jingjing%Zeng%NULL%1,                 Yuwen%Liu%NULL%1,                 Xiying%Xiang%NULL%1,                 Rong%Guo%NULL%1,                 Xiaoyin%Li%NULL%1,                 Xiandi%Wu%NULL%1,                 Haiying%Xu%NULL%1,                 Ling%Jiang%NULL%1,                 Huaqin%Zhang%NULL%1,                 Jing%Chen%NULL%2,                 Lili%Tian%NULL%1,                 Jun%Luo%NULL%1,                 Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1140,7 +1173,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1169,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1198,7 +1231,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1227,7 +1260,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1256,7 +1289,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1285,7 +1318,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1314,7 +1347,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1343,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1372,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1401,7 +1434,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="270">
   <si>
     <t>Doi</t>
   </si>
@@ -807,6 +807,48 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%2,                 Qianyuan%Li%NULL%1,                 Jun%Zhou%NULL%1,                 Wen%Ai%NULL%1,                 Xiaoling%Zheng%NULL%1,                 Jingjing%Zeng%NULL%1,                 Yuwen%Liu%NULL%1,                 Xiying%Xiang%NULL%1,                 Rong%Guo%NULL%1,                 Xiaoyin%Li%NULL%1,                 Xiandi%Wu%NULL%1,                 Haiying%Xu%NULL%1,                 Ling%Jiang%NULL%1,                 Huaqin%Zhang%NULL%1,                 Jing%Chen%NULL%2,                 Lili%Tian%NULL%1,                 Jun%Luo%NULL%1,                 Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                  Shaili%Gupta%NULL%2,                  Shaili%Gupta%NULL%0,                  Gary%Stack%NULL%1,                  Sheldon M.%Campbell%NULL%1,                  David R.%Peaper%NULL%2,                  David R.%Peaper%NULL%0,                  Louise M.%Dembry%NULL%1,                  Ann%Fisher%NULL%1,                  Asim F.%Tarabar%NULL%1,                  Michael%Kozal%NULL%1,                  Christopher B.%Ruser%NULL%1,                  Selvakumar%Subbian%NULL%8,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0,                  Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                   K.% Fonseca%null%1,                   A. R.% Schneider%null%1,                   J.% Hu%null%1,                   N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                  Isabelle%Podglajen%NULL%1,                  Maxime%Wack%NULL%1,                  Edouard%Flamarion%NULL%1,                  Tristan%Mirault%NULL%1,                  Guillaume%Goudot%NULL%1,                  Caroline%Hauw-Berlemont%NULL%2,                  Laetitia%Le%NULL%1,                  Eric%Caudron%NULL%1,                  Sophie%Carrabin%NULL%1,                  Julien%Rodary%NULL%1,                  Tatiana%Ribeyre%NULL%1,                  Laurent%Bélec%NULL%1,                  David%Veyer%NULL%1,                  Alexander J.%McAdam%NULL%7,                  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                  Rachel%Jennings%NULL%2,                  Rachel%Jennings%NULL%0,                  Brian%Hart%NULL%1,                  Gerard A.%Cangelosi%NULL%2,                  Gerard A.%Cangelosi%NULL%0,                  Rachel C.%Wood%NULL%1,                  Kevin%Wehber%NULL%2,                  Kevin%Wehber%NULL%0,                  Prateek%Verma%NULL%1,                  Deneen%Vojta%NULL%1,                  Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                  Rose A.%Lee%NULL%1,                  Ghee Rye%Lee%NULL%1,                  Kate%Zulauf%NULL%1,                  James E.%Kirby%NULL%1,                  Ramy%Arnaout%NULL%1,                   C.%Callahan%null%1,                   R.% Lee%null%1,                   G.% Lee%null%1,                   K. E.% Zulauf%null%1,                   J. E.% Kirby%null%1,                   R. % Arnaout%null%1,                  C.%Callahan%null%1,                  R.% Lee%null%1,                  G.% Lee%null%1,                  K. E.% Zulauf%null%1,                  J. E.% Kirby%null%1,                  R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                  Greta%Van Slyke%NULL%1,                  Dylan%Ehrbar%NULL%1,                  Klemen%Strle%NULL%1,                  Tugba%Yildirim%NULL%1,                  Dominick A.%Centurioni%NULL%1,                  Anne C.%Walsh%NULL%1,                  Andrew K.%Chang%NULL%1,                  Michael J.%Waxman%NULL%2,                  Michael J.%Waxman%NULL%0,                  Kirsten%St. George%NULL%1,                  Alexander J.%McAdam%NULL%0,                  Alexander J.%McAdam%NULL%0,                  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                  F%Turner%NULL%1,                  V%Slepnev%NULL%1,                  A%Bacelar%NULL%1,                  L%Deming%NULL%1,                  S%Kodeboyina%NULL%1,                  J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                  Ashley E.%Kim%NULL%1,                  Naomi C.%Wilcox%NULL%1,                  Jennifer K.%Logue%NULL%1,                  Alex L.%Greninger%NULL%1,                  Janet A.%Englund%NULL%1,                  Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                  A. P.%Barker%NULL%2,                  A. P.%Barker%NULL%0,                  D. R.%Hillyard%NULL%1,                  N.%Gilmore%NULL%1,                  J. W.%Barrett%NULL%1,                  R. R.%Orlandi%NULL%1,                  S. M.%Shakir%NULL%1,                  Alexander J.%McAdam%NULL%0,                  Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                  Connie%Trieu%NULL%1,                  Sunil K%Pati%NULL%1,                  Misty%Latting%NULL%1,                  Joshua%Cooper%NULL%1,                  Maria C%Seleme%NULL%1,                  Sushma%Boppana%NULL%1,                  Nitin%Arora%NULL%1,                  William J%Britt%NULL%1,                  Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                  Qianyuan%Li%NULL%1,                  Jun%Zhou%NULL%1,                  Wen%Ai%NULL%1,                  Xiaoling%Zheng%NULL%1,                  Jingjing%Zeng%NULL%1,                  Yuwen%Liu%NULL%1,                  Xiying%Xiang%NULL%1,                  Rong%Guo%NULL%1,                  Xiaoyin%Li%NULL%1,                  Xiandi%Wu%NULL%1,                  Haiying%Xu%NULL%1,                  Ling%Jiang%NULL%1,                  Huaqin%Zhang%NULL%1,                  Jing%Chen%NULL%2,                  Lili%Tian%NULL%1,                  Jun%Luo%NULL%1,                  Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1156,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -1173,7 +1215,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1185,7 +1227,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
@@ -1202,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1214,7 +1256,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
@@ -1231,7 +1273,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1243,7 +1285,7 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -1260,7 +1302,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1272,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -1289,7 +1331,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1301,7 +1343,7 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -1318,7 +1360,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1330,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -1347,7 +1389,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1359,7 +1401,7 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -1376,7 +1418,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1388,7 +1430,7 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
@@ -1405,7 +1447,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1417,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -1434,7 +1476,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1446,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="281">
   <si>
     <t>Doi</t>
   </si>
@@ -849,6 +849,39 @@
   </si>
   <si>
     <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                   Shaili%Gupta%NULL%2,                   Shaili%Gupta%NULL%0,                   Gary%Stack%NULL%1,                   Sheldon M.%Campbell%NULL%1,                   David R.%Peaper%NULL%2,                   David R.%Peaper%NULL%0,                   Louise M.%Dembry%NULL%1,                   Ann%Fisher%NULL%1,                   Asim F.%Tarabar%NULL%1,                   Michael%Kozal%NULL%1,                   Christopher B.%Ruser%NULL%1,                   Selvakumar%Subbian%NULL%8,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0,                   Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%2,                    K.% Fonseca%null%1,                    A. R.% Schneider%null%1,                    J.% Hu%null%1,                    N. % Zelyas%null%1,  B. M.%Berenger%null%0,  K.% Fonseca%null%1,  A. R.% Schneider%null%1,  J.% Hu%null%2,  N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                   Isabelle%Podglajen%NULL%1,                   Maxime%Wack%NULL%1,                   Edouard%Flamarion%NULL%1,                   Tristan%Mirault%NULL%1,                   Guillaume%Goudot%NULL%1,                   Caroline%Hauw-Berlemont%NULL%2,                   Laetitia%Le%NULL%1,                   Eric%Caudron%NULL%1,                   Sophie%Carrabin%NULL%1,                   Julien%Rodary%NULL%1,                   Tatiana%Ribeyre%NULL%1,                   Laurent%Bélec%NULL%1,                   David%Veyer%NULL%1,                   Alexander J.%McAdam%NULL%7,                   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                   Rachel%Jennings%NULL%2,                   Rachel%Jennings%NULL%0,                   Brian%Hart%NULL%1,                   Gerard A.%Cangelosi%NULL%2,                   Gerard A.%Cangelosi%NULL%0,                   Rachel C.%Wood%NULL%1,                   Kevin%Wehber%NULL%2,                   Kevin%Wehber%NULL%0,                   Prateek%Verma%NULL%1,                   Deneen%Vojta%NULL%1,                   Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                   Rose A.%Lee%NULL%1,                   Ghee Rye%Lee%NULL%1,                   Kate%Zulauf%NULL%1,                   James E.%Kirby%NULL%1,                   Ramy%Arnaout%NULL%1,                    C.%Callahan%null%1,                    R.% Lee%null%1,                    G.% Lee%null%1,                    K. E.% Zulauf%null%1,                    J. E.% Kirby%null%1,                    R. % Arnaout%null%1,                   C.%Callahan%null%1,                   R.% Lee%null%1,                   G.% Lee%null%1,                   K. E.% Zulauf%null%1,                   J. E.% Kirby%null%1,                   R. % Arnaout%null%1,  C.%Callahan%null%1,  R.% Lee%null%1,  G.% Lee%null%1,  K. E.% Zulauf%null%1,  J. E.% Kirby%null%1,  R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                   Greta%Van Slyke%NULL%1,                   Dylan%Ehrbar%NULL%1,                   Klemen%Strle%NULL%1,                   Tugba%Yildirim%NULL%1,                   Dominick A.%Centurioni%NULL%1,                   Anne C.%Walsh%NULL%1,                   Andrew K.%Chang%NULL%1,                   Michael J.%Waxman%NULL%2,                   Michael J.%Waxman%NULL%0,                   Kirsten%St. George%NULL%1,                   Alexander J.%McAdam%NULL%0,                   Alexander J.%McAdam%NULL%0,                   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                   F%Turner%NULL%1,                   V%Slepnev%NULL%1,                   A%Bacelar%NULL%1,                   L%Deming%NULL%1,                   S%Kodeboyina%NULL%1,                   J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                   Ashley E.%Kim%NULL%1,                   Naomi C.%Wilcox%NULL%1,                   Jennifer K.%Logue%NULL%1,                   Alex L.%Greninger%NULL%1,                   Janet A.%Englund%NULL%1,                   Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                   A. P.%Barker%NULL%2,                   A. P.%Barker%NULL%0,                   D. R.%Hillyard%NULL%1,                   N.%Gilmore%NULL%1,                   J. W.%Barrett%NULL%1,                   R. R.%Orlandi%NULL%1,                   S. M.%Shakir%NULL%1,                   Alexander J.%McAdam%NULL%0,                   Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                   Connie%Trieu%NULL%1,                   Sunil K%Pati%NULL%1,                   Misty%Latting%NULL%1,                   Joshua%Cooper%NULL%1,                   Maria C%Seleme%NULL%1,                   Sushma%Boppana%NULL%1,                   Nitin%Arora%NULL%1,                   William J%Britt%NULL%1,                   Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                   Qianyuan%Li%NULL%1,                   Jun%Zhou%NULL%1,                   Wen%Ai%NULL%1,                   Xiaoling%Zheng%NULL%1,                   Jingjing%Zeng%NULL%1,                   Yuwen%Liu%NULL%1,                   Xiying%Xiang%NULL%1,                   Rong%Guo%NULL%1,                   Xiaoyin%Li%NULL%1,                   Xiandi%Wu%NULL%1,                   Haiying%Xu%NULL%1,                   Ling%Jiang%NULL%1,                   Huaqin%Zhang%NULL%1,                   Jing%Chen%NULL%2,                   Lili%Tian%NULL%1,                   Jun%Luo%NULL%1,                   Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1219,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1215,7 +1248,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1244,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1273,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1302,7 +1335,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1331,7 +1364,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1360,7 +1393,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1389,7 +1422,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1418,7 +1451,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1447,7 +1480,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1476,7 +1509,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="337">
   <si>
     <t>Doi</t>
   </si>
@@ -882,6 +882,174 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,                   Qianyuan%Li%NULL%1,                   Jun%Zhou%NULL%1,                   Wen%Ai%NULL%1,                   Xiaoling%Zheng%NULL%1,                   Jingjing%Zeng%NULL%1,                   Yuwen%Liu%NULL%1,                   Xiying%Xiang%NULL%1,                   Rong%Guo%NULL%1,                   Xiaoyin%Li%NULL%1,                   Xiandi%Wu%NULL%1,                   Haiying%Xu%NULL%1,                   Ling%Jiang%NULL%1,                   Huaqin%Zhang%NULL%1,                   Jing%Chen%NULL%2,                   Lili%Tian%NULL%1,                   Jun%Luo%NULL%1,                   Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                    Shaili%Gupta%NULL%2,                    Shaili%Gupta%NULL%0,                    Gary%Stack%NULL%1,                    Sheldon M.%Campbell%NULL%1,                    David R.%Peaper%NULL%2,                    David R.%Peaper%NULL%0,                    Louise M.%Dembry%NULL%1,                    Ann%Fisher%NULL%1,                    Asim F.%Tarabar%NULL%1,                    Michael%Kozal%NULL%1,                    Christopher B.%Ruser%NULL%1,                    Selvakumar%Subbian%NULL%8,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0,                    Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                     K.% Fonseca%null%1,                     A. R.% Schneider%null%1,                     J.% Hu%null%1,                     N. % Zelyas%null%1,   B. M.%Berenger%null%1,   K.% Fonseca%null%1,   A. R.% Schneider%null%1,   J.% Hu%null%2,   N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                    Isabelle%Podglajen%NULL%1,                    Maxime%Wack%NULL%1,                    Edouard%Flamarion%NULL%1,                    Tristan%Mirault%NULL%1,                    Guillaume%Goudot%NULL%1,                    Caroline%Hauw-Berlemont%NULL%2,                    Laetitia%Le%NULL%1,                    Eric%Caudron%NULL%1,                    Sophie%Carrabin%NULL%1,                    Julien%Rodary%NULL%1,                    Tatiana%Ribeyre%NULL%1,                    Laurent%Bélec%NULL%1,                    David%Veyer%NULL%1,                    Alexander J.%McAdam%NULL%7,                    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                    Rachel%Jennings%NULL%2,                    Rachel%Jennings%NULL%0,                    Brian%Hart%NULL%1,                    Gerard A.%Cangelosi%NULL%2,                    Gerard A.%Cangelosi%NULL%0,                    Rachel C.%Wood%NULL%1,                    Kevin%Wehber%NULL%2,                    Kevin%Wehber%NULL%0,                    Prateek%Verma%NULL%1,                    Deneen%Vojta%NULL%1,                    Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                    Rose A.%Lee%NULL%1,                    Ghee Rye%Lee%NULL%1,                    Kate%Zulauf%NULL%1,                    James E.%Kirby%NULL%1,                    Ramy%Arnaout%NULL%1,                     C.%Callahan%null%1,                     R.% Lee%null%1,                     G.% Lee%null%1,                     K. E.% Zulauf%null%1,                     J. E.% Kirby%null%1,                     R. % Arnaout%null%1,                    C.%Callahan%null%1,                    R.% Lee%null%1,                    G.% Lee%null%1,                    K. E.% Zulauf%null%1,                    J. E.% Kirby%null%1,                    R. % Arnaout%null%1,   C.%Callahan%null%1,   R.% Lee%null%1,   G.% Lee%null%1,   K. E.% Zulauf%null%1,   J. E.% Kirby%null%1,   R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                    Greta%Van Slyke%NULL%1,                    Dylan%Ehrbar%NULL%1,                    Klemen%Strle%NULL%1,                    Tugba%Yildirim%NULL%1,                    Dominick A.%Centurioni%NULL%1,                    Anne C.%Walsh%NULL%1,                    Andrew K.%Chang%NULL%1,                    Michael J.%Waxman%NULL%2,                    Michael J.%Waxman%NULL%0,                    Kirsten%St. George%NULL%1,                    Alexander J.%McAdam%NULL%0,                    Alexander J.%McAdam%NULL%0,                    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                    F%Turner%NULL%1,                    V%Slepnev%NULL%1,                    A%Bacelar%NULL%1,                    L%Deming%NULL%1,                    S%Kodeboyina%NULL%1,                    J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                    Ashley E.%Kim%NULL%1,                    Naomi C.%Wilcox%NULL%1,                    Jennifer K.%Logue%NULL%1,                    Alex L.%Greninger%NULL%1,                    Janet A.%Englund%NULL%1,                    Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                    A. P.%Barker%NULL%2,                    A. P.%Barker%NULL%0,                    D. R.%Hillyard%NULL%1,                    N.%Gilmore%NULL%1,                    J. W.%Barrett%NULL%1,                    R. R.%Orlandi%NULL%1,                    S. M.%Shakir%NULL%1,                    Alexander J.%McAdam%NULL%0,                    Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                    Connie%Trieu%NULL%1,                    Sunil K%Pati%NULL%1,                    Misty%Latting%NULL%1,                    Joshua%Cooper%NULL%1,                    Maria C%Seleme%NULL%1,                    Sushma%Boppana%NULL%1,                    Nitin%Arora%NULL%1,                    William J%Britt%NULL%1,                    Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                    Qianyuan%Li%NULL%1,                    Jun%Zhou%NULL%1,                    Wen%Ai%NULL%1,                    Xiaoling%Zheng%NULL%1,                    Jingjing%Zeng%NULL%1,                    Yuwen%Liu%NULL%1,                    Xiying%Xiang%NULL%1,                    Rong%Guo%NULL%1,                    Xiaoyin%Li%NULL%1,                    Xiandi%Wu%NULL%1,                    Haiying%Xu%NULL%1,                    Ling%Jiang%NULL%1,                    Huaqin%Zhang%NULL%1,                    Jing%Chen%NULL%2,                    Lili%Tian%NULL%1,                    Jun%Luo%NULL%1,                    Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                     Shaili%Gupta%NULL%2,                     Shaili%Gupta%NULL%0,                     Gary%Stack%NULL%1,                     Sheldon M.%Campbell%NULL%1,                     David R.%Peaper%NULL%2,                     David R.%Peaper%NULL%0,                     Louise M.%Dembry%NULL%1,                     Ann%Fisher%NULL%1,                     Asim F.%Tarabar%NULL%1,                     Michael%Kozal%NULL%1,                     Christopher B.%Ruser%NULL%1,                     Selvakumar%Subbian%NULL%8,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0,                     Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                      K.% Fonseca%null%1,                      A. R.% Schneider%null%1,                      J.% Hu%null%1,                      N. % Zelyas%null%1,    B. M.%Berenger%null%1,    K.% Fonseca%null%1,    A. R.% Schneider%null%1,    J.% Hu%null%2,    N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                     Isabelle%Podglajen%NULL%1,                     Maxime%Wack%NULL%1,                     Edouard%Flamarion%NULL%1,                     Tristan%Mirault%NULL%1,                     Guillaume%Goudot%NULL%1,                     Caroline%Hauw-Berlemont%NULL%2,                     Laetitia%Le%NULL%1,                     Eric%Caudron%NULL%1,                     Sophie%Carrabin%NULL%1,                     Julien%Rodary%NULL%1,                     Tatiana%Ribeyre%NULL%1,                     Laurent%Bélec%NULL%1,                     David%Veyer%NULL%1,                     Alexander J.%McAdam%NULL%7,                     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                     Rachel%Jennings%NULL%2,                     Rachel%Jennings%NULL%0,                     Brian%Hart%NULL%1,                     Gerard A.%Cangelosi%NULL%2,                     Gerard A.%Cangelosi%NULL%0,                     Rachel C.%Wood%NULL%1,                     Kevin%Wehber%NULL%2,                     Kevin%Wehber%NULL%0,                     Prateek%Verma%NULL%1,                     Deneen%Vojta%NULL%1,                     Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                     Rose A.%Lee%NULL%1,                     Ghee Rye%Lee%NULL%1,                     Kate%Zulauf%NULL%1,                     James E.%Kirby%NULL%1,                     Ramy%Arnaout%NULL%1,                      C.%Callahan%null%1,                      R.% Lee%null%1,                      G.% Lee%null%1,                      K. E.% Zulauf%null%1,                      J. E.% Kirby%null%1,                      R. % Arnaout%null%1,                     C.%Callahan%null%1,                     R.% Lee%null%1,                     G.% Lee%null%1,                     K. E.% Zulauf%null%1,                     J. E.% Kirby%null%1,                     R. % Arnaout%null%1,    C.%Callahan%null%1,    R.% Lee%null%1,    G.% Lee%null%1,    K. E.% Zulauf%null%1,    J. E.% Kirby%null%1,    R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                     Greta%Van Slyke%NULL%1,                     Dylan%Ehrbar%NULL%1,                     Klemen%Strle%NULL%1,                     Tugba%Yildirim%NULL%1,                     Dominick A.%Centurioni%NULL%1,                     Anne C.%Walsh%NULL%1,                     Andrew K.%Chang%NULL%1,                     Michael J.%Waxman%NULL%2,                     Michael J.%Waxman%NULL%0,                     Kirsten%St. George%NULL%1,                     Alexander J.%McAdam%NULL%0,                     Alexander J.%McAdam%NULL%0,                     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                     F%Turner%NULL%1,                     V%Slepnev%NULL%1,                     A%Bacelar%NULL%1,                     L%Deming%NULL%1,                     S%Kodeboyina%NULL%1,                     J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                     Ashley E.%Kim%NULL%1,                     Naomi C.%Wilcox%NULL%1,                     Jennifer K.%Logue%NULL%1,                     Alex L.%Greninger%NULL%1,                     Janet A.%Englund%NULL%1,                     Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                     A. P.%Barker%NULL%2,                     A. P.%Barker%NULL%0,                     D. R.%Hillyard%NULL%1,                     N.%Gilmore%NULL%1,                     J. W.%Barrett%NULL%1,                     R. R.%Orlandi%NULL%1,                     S. M.%Shakir%NULL%1,                     Alexander J.%McAdam%NULL%0,                     Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                     Connie%Trieu%NULL%1,                     Sunil K%Pati%NULL%1,                     Misty%Latting%NULL%1,                     Joshua%Cooper%NULL%1,                     Maria C%Seleme%NULL%1,                     Sushma%Boppana%NULL%1,                     Nitin%Arora%NULL%1,                     William J%Britt%NULL%1,                     Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                     Qianyuan%Li%NULL%1,                     Jun%Zhou%NULL%1,                     Wen%Ai%NULL%1,                     Xiaoling%Zheng%NULL%1,                     Jingjing%Zeng%NULL%1,                     Yuwen%Liu%NULL%1,                     Xiying%Xiang%NULL%1,                     Rong%Guo%NULL%1,                     Xiaoyin%Li%NULL%1,                     Xiandi%Wu%NULL%1,                     Haiying%Xu%NULL%1,                     Ling%Jiang%NULL%1,                     Huaqin%Zhang%NULL%1,                     Jing%Chen%NULL%2,                     Lili%Tian%NULL%1,                     Jun%Luo%NULL%1,                     Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                      Shaili%Gupta%NULL%2,                      Shaili%Gupta%NULL%0,                      Gary%Stack%NULL%1,                      Sheldon M.%Campbell%NULL%1,                      David R.%Peaper%NULL%2,                      David R.%Peaper%NULL%0,                      Louise M.%Dembry%NULL%1,                      Ann%Fisher%NULL%1,                      Asim F.%Tarabar%NULL%1,                      Michael%Kozal%NULL%1,                      Christopher B.%Ruser%NULL%1,                      Selvakumar%Subbian%NULL%8,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0,                      Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                       K.% Fonseca%null%1,                       A. R.% Schneider%null%1,                       J.% Hu%null%1,                       N. % Zelyas%null%1,     B. M.%Berenger%null%1,     K.% Fonseca%null%1,     A. R.% Schneider%null%1,     J.% Hu%null%2,     N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                      Isabelle%Podglajen%NULL%1,                      Maxime%Wack%NULL%1,                      Edouard%Flamarion%NULL%1,                      Tristan%Mirault%NULL%1,                      Guillaume%Goudot%NULL%1,                      Caroline%Hauw-Berlemont%NULL%2,                      Laetitia%Le%NULL%1,                      Eric%Caudron%NULL%1,                      Sophie%Carrabin%NULL%1,                      Julien%Rodary%NULL%1,                      Tatiana%Ribeyre%NULL%1,                      Laurent%Bélec%NULL%1,                      David%Veyer%NULL%1,                      Alexander J.%McAdam%NULL%7,                      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                      Rachel%Jennings%NULL%2,                      Rachel%Jennings%NULL%0,                      Brian%Hart%NULL%1,                      Gerard A.%Cangelosi%NULL%2,                      Gerard A.%Cangelosi%NULL%0,                      Rachel C.%Wood%NULL%1,                      Kevin%Wehber%NULL%2,                      Kevin%Wehber%NULL%0,                      Prateek%Verma%NULL%1,                      Deneen%Vojta%NULL%1,                      Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                      Rose A.%Lee%NULL%1,                      Ghee Rye%Lee%NULL%1,                      Kate%Zulauf%NULL%1,                      James E.%Kirby%NULL%1,                      Ramy%Arnaout%NULL%1,                       C.%Callahan%null%1,                       R.% Lee%null%1,                       G.% Lee%null%1,                       K. E.% Zulauf%null%1,                       J. E.% Kirby%null%1,                       R. % Arnaout%null%1,                      C.%Callahan%null%1,                      R.% Lee%null%1,                      G.% Lee%null%1,                      K. E.% Zulauf%null%1,                      J. E.% Kirby%null%1,                      R. % Arnaout%null%1,     C.%Callahan%null%1,     R.% Lee%null%1,     G.% Lee%null%1,     K. E.% Zulauf%null%1,     J. E.% Kirby%null%1,     R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                      Greta%Van Slyke%NULL%1,                      Dylan%Ehrbar%NULL%1,                      Klemen%Strle%NULL%1,                      Tugba%Yildirim%NULL%1,                      Dominick A.%Centurioni%NULL%1,                      Anne C.%Walsh%NULL%1,                      Andrew K.%Chang%NULL%1,                      Michael J.%Waxman%NULL%2,                      Michael J.%Waxman%NULL%0,                      Kirsten%St. George%NULL%1,                      Alexander J.%McAdam%NULL%0,                      Alexander J.%McAdam%NULL%0,                      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                      F%Turner%NULL%1,                      V%Slepnev%NULL%1,                      A%Bacelar%NULL%1,                      L%Deming%NULL%1,                      S%Kodeboyina%NULL%1,                      J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                      Ashley E.%Kim%NULL%1,                      Naomi C.%Wilcox%NULL%1,                      Jennifer K.%Logue%NULL%1,                      Alex L.%Greninger%NULL%1,                      Janet A.%Englund%NULL%1,                      Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                      A. P.%Barker%NULL%2,                      A. P.%Barker%NULL%0,                      D. R.%Hillyard%NULL%1,                      N.%Gilmore%NULL%1,                      J. W.%Barrett%NULL%1,                      R. R.%Orlandi%NULL%1,                      S. M.%Shakir%NULL%1,                      Alexander J.%McAdam%NULL%0,                      Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                      Connie%Trieu%NULL%1,                      Sunil K%Pati%NULL%1,                      Misty%Latting%NULL%1,                      Joshua%Cooper%NULL%1,                      Maria C%Seleme%NULL%1,                      Sushma%Boppana%NULL%1,                      Nitin%Arora%NULL%1,                      William J%Britt%NULL%1,                      Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                      Qianyuan%Li%NULL%1,                      Jun%Zhou%NULL%1,                      Wen%Ai%NULL%1,                      Xiaoling%Zheng%NULL%1,                      Jingjing%Zeng%NULL%1,                      Yuwen%Liu%NULL%1,                      Xiying%Xiang%NULL%1,                      Rong%Guo%NULL%1,                      Xiaoyin%Li%NULL%1,                      Xiandi%Wu%NULL%1,                      Haiying%Xu%NULL%1,                      Ling%Jiang%NULL%1,                      Huaqin%Zhang%NULL%1,                      Jing%Chen%NULL%2,                      Lili%Tian%NULL%1,                      Jun%Luo%NULL%1,                      Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                       Shaili%Gupta%NULL%2,                       Shaili%Gupta%NULL%0,                       Gary%Stack%NULL%1,                       Sheldon M.%Campbell%NULL%1,                       David R.%Peaper%NULL%2,                       David R.%Peaper%NULL%0,                       Louise M.%Dembry%NULL%1,                       Ann%Fisher%NULL%1,                       Asim F.%Tarabar%NULL%1,                       Michael%Kozal%NULL%1,                       Christopher B.%Ruser%NULL%1,                       Selvakumar%Subbian%NULL%8,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0,                       Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                        K.% Fonseca%null%1,                        A. R.% Schneider%null%1,                        J.% Hu%null%1,                        N. % Zelyas%null%1,      B. M.%Berenger%null%1,      K.% Fonseca%null%1,      A. R.% Schneider%null%1,      J.% Hu%null%2,      N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                       Isabelle%Podglajen%NULL%1,                       Maxime%Wack%NULL%1,                       Edouard%Flamarion%NULL%1,                       Tristan%Mirault%NULL%1,                       Guillaume%Goudot%NULL%1,                       Caroline%Hauw-Berlemont%NULL%2,                       Laetitia%Le%NULL%1,                       Eric%Caudron%NULL%1,                       Sophie%Carrabin%NULL%1,                       Julien%Rodary%NULL%1,                       Tatiana%Ribeyre%NULL%1,                       Laurent%Bélec%NULL%1,                       David%Veyer%NULL%1,                       Alexander J.%McAdam%NULL%7,                       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                       Rachel%Jennings%NULL%2,                       Rachel%Jennings%NULL%0,                       Brian%Hart%NULL%1,                       Gerard A.%Cangelosi%NULL%2,                       Gerard A.%Cangelosi%NULL%0,                       Rachel C.%Wood%NULL%1,                       Kevin%Wehber%NULL%2,                       Kevin%Wehber%NULL%0,                       Prateek%Verma%NULL%1,                       Deneen%Vojta%NULL%1,                       Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                       Rose A.%Lee%NULL%1,                       Ghee Rye%Lee%NULL%1,                       Kate%Zulauf%NULL%1,                       James E.%Kirby%NULL%1,                       Ramy%Arnaout%NULL%1,                        C.%Callahan%null%1,                        R.% Lee%null%1,                        G.% Lee%null%1,                        K. E.% Zulauf%null%1,                        J. E.% Kirby%null%1,                        R. % Arnaout%null%1,                       C.%Callahan%null%1,                       R.% Lee%null%1,                       G.% Lee%null%1,                       K. E.% Zulauf%null%1,                       J. E.% Kirby%null%1,                       R. % Arnaout%null%1,      C.%Callahan%null%1,      R.% Lee%null%1,      G.% Lee%null%1,      K. E.% Zulauf%null%1,      J. E.% Kirby%null%1,      R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                       Greta%Van Slyke%NULL%1,                       Dylan%Ehrbar%NULL%1,                       Klemen%Strle%NULL%1,                       Tugba%Yildirim%NULL%1,                       Dominick A.%Centurioni%NULL%1,                       Anne C.%Walsh%NULL%1,                       Andrew K.%Chang%NULL%1,                       Michael J.%Waxman%NULL%2,                       Michael J.%Waxman%NULL%0,                       Kirsten%St. George%NULL%1,                       Alexander J.%McAdam%NULL%0,                       Alexander J.%McAdam%NULL%0,                       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                       F%Turner%NULL%1,                       V%Slepnev%NULL%1,                       A%Bacelar%NULL%1,                       L%Deming%NULL%1,                       S%Kodeboyina%NULL%1,                       J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                       Ashley E.%Kim%NULL%1,                       Naomi C.%Wilcox%NULL%1,                       Jennifer K.%Logue%NULL%1,                       Alex L.%Greninger%NULL%1,                       Janet A.%Englund%NULL%1,                       Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                       A. P.%Barker%NULL%2,                       A. P.%Barker%NULL%0,                       D. R.%Hillyard%NULL%1,                       N.%Gilmore%NULL%1,                       J. W.%Barrett%NULL%1,                       R. R.%Orlandi%NULL%1,                       S. M.%Shakir%NULL%1,                       Alexander J.%McAdam%NULL%0,                       Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                       Connie%Trieu%NULL%1,                       Sunil K%Pati%NULL%1,                       Misty%Latting%NULL%1,                       Joshua%Cooper%NULL%1,                       Maria C%Seleme%NULL%1,                       Sushma%Boppana%NULL%1,                       Nitin%Arora%NULL%1,                       William J%Britt%NULL%1,                       Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                       Qianyuan%Li%NULL%1,                       Jun%Zhou%NULL%1,                       Wen%Ai%NULL%1,                       Xiaoling%Zheng%NULL%1,                       Jingjing%Zeng%NULL%1,                       Yuwen%Liu%NULL%1,                       Xiying%Xiang%NULL%1,                       Rong%Guo%NULL%1,                       Xiaoyin%Li%NULL%1,                       Xiandi%Wu%NULL%1,                       Haiying%Xu%NULL%1,                       Ling%Jiang%NULL%1,                       Huaqin%Zhang%NULL%1,                       Jing%Chen%NULL%2,                       Lili%Tian%NULL%1,                       Jun%Luo%NULL%1,                       Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                        Shaili%Gupta%NULL%2,                        Shaili%Gupta%NULL%0,                        Gary%Stack%NULL%1,                        Sheldon M.%Campbell%NULL%1,                        David R.%Peaper%NULL%2,                        David R.%Peaper%NULL%0,                        Louise M.%Dembry%NULL%1,                        Ann%Fisher%NULL%1,                        Asim F.%Tarabar%NULL%1,                        Michael%Kozal%NULL%1,                        Christopher B.%Ruser%NULL%1,                        Selvakumar%Subbian%NULL%8,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0,                        Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                         K.% Fonseca%null%1,                         A. R.% Schneider%null%1,                         J.% Hu%null%1,                         N. % Zelyas%null%1,       B. M.%Berenger%null%1,       K.% Fonseca%null%1,       A. R.% Schneider%null%1,       J.% Hu%null%2,       N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                        Isabelle%Podglajen%NULL%1,                        Maxime%Wack%NULL%1,                        Edouard%Flamarion%NULL%1,                        Tristan%Mirault%NULL%1,                        Guillaume%Goudot%NULL%1,                        Caroline%Hauw-Berlemont%NULL%2,                        Laetitia%Le%NULL%1,                        Eric%Caudron%NULL%1,                        Sophie%Carrabin%NULL%1,                        Julien%Rodary%NULL%1,                        Tatiana%Ribeyre%NULL%1,                        Laurent%Bélec%NULL%1,                        David%Veyer%NULL%1,                        Alexander J.%McAdam%NULL%7,                        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                        Rachel%Jennings%NULL%2,                        Rachel%Jennings%NULL%0,                        Brian%Hart%NULL%1,                        Gerard A.%Cangelosi%NULL%2,                        Gerard A.%Cangelosi%NULL%0,                        Rachel C.%Wood%NULL%1,                        Kevin%Wehber%NULL%2,                        Kevin%Wehber%NULL%0,                        Prateek%Verma%NULL%1,                        Deneen%Vojta%NULL%1,                        Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                        Rose A.%Lee%NULL%1,                        Ghee Rye%Lee%NULL%1,                        Kate%Zulauf%NULL%1,                        James E.%Kirby%NULL%1,                        Ramy%Arnaout%NULL%1,                         C.%Callahan%null%1,                         R.% Lee%null%1,                         G.% Lee%null%1,                         K. E.% Zulauf%null%1,                         J. E.% Kirby%null%1,                         R. % Arnaout%null%1,                        C.%Callahan%null%1,                        R.% Lee%null%1,                        G.% Lee%null%1,                        K. E.% Zulauf%null%1,                        J. E.% Kirby%null%1,                        R. % Arnaout%null%1,       C.%Callahan%null%1,       R.% Lee%null%1,       G.% Lee%null%1,       K. E.% Zulauf%null%1,       J. E.% Kirby%null%1,       R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                        Greta%Van Slyke%NULL%1,                        Dylan%Ehrbar%NULL%1,                        Klemen%Strle%NULL%1,                        Tugba%Yildirim%NULL%1,                        Dominick A.%Centurioni%NULL%1,                        Anne C.%Walsh%NULL%1,                        Andrew K.%Chang%NULL%1,                        Michael J.%Waxman%NULL%2,                        Michael J.%Waxman%NULL%0,                        Kirsten%St. George%NULL%1,                        Alexander J.%McAdam%NULL%0,                        Alexander J.%McAdam%NULL%0,                        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                        F%Turner%NULL%1,                        V%Slepnev%NULL%1,                        A%Bacelar%NULL%1,                        L%Deming%NULL%1,                        S%Kodeboyina%NULL%1,                        J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                        Ashley E.%Kim%NULL%1,                        Naomi C.%Wilcox%NULL%1,                        Jennifer K.%Logue%NULL%1,                        Alex L.%Greninger%NULL%1,                        Janet A.%Englund%NULL%1,                        Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                        A. P.%Barker%NULL%2,                        A. P.%Barker%NULL%0,                        D. R.%Hillyard%NULL%1,                        N.%Gilmore%NULL%1,                        J. W.%Barrett%NULL%1,                        R. R.%Orlandi%NULL%1,                        S. M.%Shakir%NULL%1,                        Alexander J.%McAdam%NULL%0,                        Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                        Connie%Trieu%NULL%1,                        Sunil K%Pati%NULL%1,                        Misty%Latting%NULL%1,                        Joshua%Cooper%NULL%1,                        Maria C%Seleme%NULL%1,                        Sushma%Boppana%NULL%1,                        Nitin%Arora%NULL%1,                        William J%Britt%NULL%1,                        Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                        Qianyuan%Li%NULL%1,                        Jun%Zhou%NULL%1,                        Wen%Ai%NULL%1,                        Xiaoling%Zheng%NULL%1,                        Jingjing%Zeng%NULL%1,                        Yuwen%Liu%NULL%1,                        Xiying%Xiang%NULL%1,                        Rong%Guo%NULL%1,                        Xiaoyin%Li%NULL%1,                        Xiandi%Wu%NULL%1,                        Haiying%Xu%NULL%1,                        Ling%Jiang%NULL%1,                        Huaqin%Zhang%NULL%1,                        Jing%Chen%NULL%2,                        Lili%Tian%NULL%1,                        Jun%Luo%NULL%1,                        Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1372,9 @@
       <c r="I1" t="s">
         <v>75</v>
       </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1219,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1232,6 +1403,9 @@
       </c>
       <c r="I2" t="s">
         <v>257</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -1248,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1261,6 +1435,9 @@
       </c>
       <c r="I3" t="s">
         <v>259</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1290,6 +1467,9 @@
       </c>
       <c r="I4" t="s">
         <v>257</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1306,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1319,6 +1499,9 @@
       </c>
       <c r="I5" t="s">
         <v>257</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1335,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1348,6 +1531,9 @@
       </c>
       <c r="I6" t="s">
         <v>257</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1364,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1377,6 +1563,9 @@
       </c>
       <c r="I7" t="s">
         <v>257</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1393,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1406,6 +1595,9 @@
       </c>
       <c r="I8" t="s">
         <v>257</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1422,7 +1614,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1435,6 +1627,9 @@
       </c>
       <c r="I9" t="s">
         <v>257</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1646,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1464,6 +1659,9 @@
       </c>
       <c r="I10" t="s">
         <v>257</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1480,7 +1678,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1493,6 +1691,9 @@
       </c>
       <c r="I11" t="s">
         <v>257</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1509,7 +1710,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1522,6 +1723,9 @@
       </c>
       <c r="I12" t="s">
         <v>269</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/12.xlsx
+++ b/Covid_19_Dataset_and_References/References/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="359">
   <si>
     <t>Doi</t>
   </si>
@@ -1050,6 +1050,72 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,                        Qianyuan%Li%NULL%1,                        Jun%Zhou%NULL%1,                        Wen%Ai%NULL%1,                        Xiaoling%Zheng%NULL%1,                        Jingjing%Zeng%NULL%1,                        Yuwen%Liu%NULL%1,                        Xiying%Xiang%NULL%1,                        Rong%Guo%NULL%1,                        Xiaoyin%Li%NULL%1,                        Xiandi%Wu%NULL%1,                        Haiying%Xu%NULL%1,                        Ling%Jiang%NULL%1,                        Huaqin%Zhang%NULL%1,                        Jing%Chen%NULL%2,                        Lili%Tian%NULL%1,                        Jun%Luo%NULL%1,                        Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                         Shaili%Gupta%NULL%2,                         Shaili%Gupta%NULL%0,                         Gary%Stack%NULL%1,                         Sheldon M.%Campbell%NULL%1,                         David R.%Peaper%NULL%2,                         David R.%Peaper%NULL%0,                         Louise M.%Dembry%NULL%1,                         Ann%Fisher%NULL%1,                         Asim F.%Tarabar%NULL%1,                         Michael%Kozal%NULL%1,                         Christopher B.%Ruser%NULL%1,                         Selvakumar%Subbian%NULL%8,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0,                         Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                          K.% Fonseca%null%1,                          A. R.% Schneider%null%1,                          J.% Hu%null%1,                          N. % Zelyas%null%1,        B. M.%Berenger%null%1,        K.% Fonseca%null%1,        A. R.% Schneider%null%1,        J.% Hu%null%2,        N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                         Isabelle%Podglajen%NULL%1,                         Maxime%Wack%NULL%1,                         Edouard%Flamarion%NULL%1,                         Tristan%Mirault%NULL%1,                         Guillaume%Goudot%NULL%1,                         Caroline%Hauw-Berlemont%NULL%2,                         Laetitia%Le%NULL%1,                         Eric%Caudron%NULL%1,                         Sophie%Carrabin%NULL%1,                         Julien%Rodary%NULL%1,                         Tatiana%Ribeyre%NULL%1,                         Laurent%Bélec%NULL%1,                         David%Veyer%NULL%1,                         Alexander J.%McAdam%NULL%7,                         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                         Rachel%Jennings%NULL%2,                         Rachel%Jennings%NULL%0,                         Brian%Hart%NULL%1,                         Gerard A.%Cangelosi%NULL%2,                         Gerard A.%Cangelosi%NULL%0,                         Rachel C.%Wood%NULL%1,                         Kevin%Wehber%NULL%2,                         Kevin%Wehber%NULL%0,                         Prateek%Verma%NULL%1,                         Deneen%Vojta%NULL%1,                         Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                         Rose A.%Lee%NULL%1,                         Ghee Rye%Lee%NULL%1,                         Kate%Zulauf%NULL%1,                         James E.%Kirby%NULL%1,                         Ramy%Arnaout%NULL%1,                          C.%Callahan%null%1,                          R.% Lee%null%1,                          G.% Lee%null%1,                          K. E.% Zulauf%null%1,                          J. E.% Kirby%null%1,                          R. % Arnaout%null%1,                         C.%Callahan%null%1,                         R.% Lee%null%1,                         G.% Lee%null%1,                         K. E.% Zulauf%null%1,                         J. E.% Kirby%null%1,                         R. % Arnaout%null%1,        C.%Callahan%null%1,        R.% Lee%null%1,        G.% Lee%null%1,        K. E.% Zulauf%null%1,        J. E.% Kirby%null%1,        R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                         Greta%Van Slyke%NULL%1,                         Dylan%Ehrbar%NULL%1,                         Klemen%Strle%NULL%1,                         Tugba%Yildirim%NULL%1,                         Dominick A.%Centurioni%NULL%1,                         Anne C.%Walsh%NULL%1,                         Andrew K.%Chang%NULL%1,                         Michael J.%Waxman%NULL%2,                         Michael J.%Waxman%NULL%0,                         Kirsten%St. George%NULL%1,                         Alexander J.%McAdam%NULL%0,                         Alexander J.%McAdam%NULL%0,                         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                         F%Turner%NULL%1,                         V%Slepnev%NULL%1,                         A%Bacelar%NULL%1,                         L%Deming%NULL%1,                         S%Kodeboyina%NULL%1,                         J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                         Ashley E.%Kim%NULL%1,                         Naomi C.%Wilcox%NULL%1,                         Jennifer K.%Logue%NULL%1,                         Alex L.%Greninger%NULL%1,                         Janet A.%Englund%NULL%1,                         Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                         A. P.%Barker%NULL%2,                         A. P.%Barker%NULL%0,                         D. R.%Hillyard%NULL%1,                         N.%Gilmore%NULL%1,                         J. W.%Barrett%NULL%1,                         R. R.%Orlandi%NULL%1,                         S. M.%Shakir%NULL%1,                         Alexander J.%McAdam%NULL%0,                         Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                         Connie%Trieu%NULL%1,                         Sunil K%Pati%NULL%1,                         Misty%Latting%NULL%1,                         Joshua%Cooper%NULL%1,                         Maria C%Seleme%NULL%1,                         Sushma%Boppana%NULL%1,                         Nitin%Arora%NULL%1,                         William J%Britt%NULL%1,                         Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                         Qianyuan%Li%NULL%1,                         Jun%Zhou%NULL%1,                         Wen%Ai%NULL%1,                         Xiaoling%Zheng%NULL%1,                         Jingjing%Zeng%NULL%1,                         Yuwen%Liu%NULL%1,                         Xiying%Xiang%NULL%1,                         Rong%Guo%NULL%1,                         Xiaoyin%Li%NULL%1,                         Xiandi%Wu%NULL%1,                         Haiying%Xu%NULL%1,                         Ling%Jiang%NULL%1,                         Huaqin%Zhang%NULL%1,                         Jing%Chen%NULL%2,                         Lili%Tian%NULL%1,                         Jun%Luo%NULL%1,                         Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                          Shaili%Gupta%NULL%2,                          Shaili%Gupta%NULL%0,                          Gary%Stack%NULL%1,                          Sheldon M.%Campbell%NULL%1,                          David R.%Peaper%NULL%2,                          David R.%Peaper%NULL%0,                          Louise M.%Dembry%NULL%1,                          Ann%Fisher%NULL%1,                          Asim F.%Tarabar%NULL%1,                          Michael%Kozal%NULL%1,                          Christopher B.%Ruser%NULL%1,                          Selvakumar%Subbian%NULL%8,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0,                          Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B. M.%Berenger%null%1,                           K.% Fonseca%null%1,                           A. R.% Schneider%null%1,                           J.% Hu%null%1,                           N. % Zelyas%null%1,         B. M.%Berenger%null%1,         K.% Fonseca%null%1,         A. R.% Schneider%null%1,         J.% Hu%null%2,         N. % Zelyas%null%1]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                          Isabelle%Podglajen%NULL%1,                          Maxime%Wack%NULL%1,                          Edouard%Flamarion%NULL%1,                          Tristan%Mirault%NULL%1,                          Guillaume%Goudot%NULL%1,                          Caroline%Hauw-Berlemont%NULL%2,                          Laetitia%Le%NULL%1,                          Eric%Caudron%NULL%1,                          Sophie%Carrabin%NULL%1,                          Julien%Rodary%NULL%1,                          Tatiana%Ribeyre%NULL%1,                          Laurent%Bélec%NULL%1,                          David%Veyer%NULL%1,                          Alexander J.%McAdam%NULL%7,                          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                          Rachel%Jennings%NULL%2,                          Rachel%Jennings%NULL%0,                          Brian%Hart%NULL%1,                          Gerard A.%Cangelosi%NULL%2,                          Gerard A.%Cangelosi%NULL%0,                          Rachel C.%Wood%NULL%1,                          Kevin%Wehber%NULL%2,                          Kevin%Wehber%NULL%0,                          Prateek%Verma%NULL%1,                          Deneen%Vojta%NULL%1,                          Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                          Rose A.%Lee%NULL%1,                          Ghee Rye%Lee%NULL%1,                          Kate%Zulauf%NULL%1,                          James E.%Kirby%NULL%1,                          Ramy%Arnaout%NULL%1,                           C.%Callahan%null%1,                           R.% Lee%null%1,                           G.% Lee%null%1,                           K. E.% Zulauf%null%1,                           J. E.% Kirby%null%1,                           R. % Arnaout%null%1,                          C.%Callahan%null%1,                          R.% Lee%null%1,                          G.% Lee%null%1,                          K. E.% Zulauf%null%1,                          J. E.% Kirby%null%1,                          R. % Arnaout%null%1,         C.%Callahan%null%1,         R.% Lee%null%1,         G.% Lee%null%1,         K. E.% Zulauf%null%1,         J. E.% Kirby%null%1,         R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                          Greta%Van Slyke%NULL%1,                          Dylan%Ehrbar%NULL%1,                          Klemen%Strle%NULL%1,                          Tugba%Yildirim%NULL%1,                          Dominick A.%Centurioni%NULL%1,                          Anne C.%Walsh%NULL%1,                          Andrew K.%Chang%NULL%1,                          Michael J.%Waxman%NULL%2,                          Michael J.%Waxman%NULL%0,                          Kirsten%St. George%NULL%1,                          Alexander J.%McAdam%NULL%0,                          Alexander J.%McAdam%NULL%0,                          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                          F%Turner%NULL%1,                          V%Slepnev%NULL%1,                          A%Bacelar%NULL%1,                          L%Deming%NULL%1,                          S%Kodeboyina%NULL%1,                          J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                          Ashley E.%Kim%NULL%1,                          Naomi C.%Wilcox%NULL%1,                          Jennifer K.%Logue%NULL%1,                          Alex L.%Greninger%NULL%1,                          Janet A.%Englund%NULL%1,                          Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                          A. P.%Barker%NULL%2,                          A. P.%Barker%NULL%0,                          D. R.%Hillyard%NULL%1,                          N.%Gilmore%NULL%1,                          J. W.%Barrett%NULL%1,                          R. R.%Orlandi%NULL%1,                          S. M.%Shakir%NULL%1,                          Alexander J.%McAdam%NULL%0,                          Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                          Connie%Trieu%NULL%1,                          Sunil K%Pati%NULL%1,                          Misty%Latting%NULL%1,                          Joshua%Cooper%NULL%1,                          Maria C%Seleme%NULL%1,                          Sushma%Boppana%NULL%1,                          Nitin%Arora%NULL%1,                          William J%Britt%NULL%1,                          Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                          Qianyuan%Li%NULL%1,                          Jun%Zhou%NULL%1,                          Wen%Ai%NULL%1,                          Xiaoling%Zheng%NULL%1,                          Jingjing%Zeng%NULL%1,                          Yuwen%Liu%NULL%1,                          Xiying%Xiang%NULL%1,                          Rong%Guo%NULL%1,                          Xiaoyin%Li%NULL%1,                          Xiandi%Wu%NULL%1,                          Haiying%Xu%NULL%1,                          Ling%Jiang%NULL%1,                          Huaqin%Zhang%NULL%1,                          Jing%Chen%NULL%2,                          Lili%Tian%NULL%1,                          Jun%Luo%NULL%1,                          Chunhua%Luo%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1422,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1454,7 +1520,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1486,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1518,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1550,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1582,7 +1648,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1614,7 +1680,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1646,7 +1712,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1678,7 +1744,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1710,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
